--- a/outputs-HGR-r202-archive/o__Lachnospirales.xlsx
+++ b/outputs-HGR-r202-archive/o__Lachnospirales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,19 +483,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.869134565674393e-09</v>
+        <v>0.0003755781139251557</v>
       </c>
       <c r="C2" t="n">
-        <v>5.914618746643967e-07</v>
+        <v>1.009308849882906e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>4.204223946877873e-10</v>
+        <v>0.0002355421155941775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999994022485684</v>
+        <v>0.9993878704616309</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999994022485684</v>
+        <v>0.9993878704616309</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.014094253693388e-07</v>
+        <v>5.504966073693832e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>4.412828569984886e-06</v>
+        <v>5.014276151695017e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>7.379878525192924e-06</v>
+        <v>0.0003238057873799393</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999877058834795</v>
+        <v>0.9996701878189312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999877058834795</v>
+        <v>0.9996701878189312</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.018099489591497e-09</v>
+        <v>0.0001337073932450249</v>
       </c>
       <c r="C4" t="n">
-        <v>9.351984490464691e-07</v>
+        <v>9.293779485092251e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>2.804751552894964e-09</v>
+        <v>0.0002206343100278292</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999990579786999</v>
+        <v>0.9996447289187786</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999990579786999</v>
+        <v>0.9996447289187786</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.4576426474245e-05</v>
+        <v>9.482199248927538e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>7.841740166682456e-05</v>
+        <v>2.676424299768809e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>7.559491762079108e-08</v>
+        <v>6.798411121203214e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999069305769412</v>
+        <v>0.9998345174719989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999069305769412</v>
+        <v>0.9998345174719989</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.922228732129735e-07</v>
+        <v>0.001221644091293811</v>
       </c>
       <c r="C6" t="n">
-        <v>1.924640535403004e-06</v>
+        <v>1.145536541912754e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>3.968309140798482e-10</v>
+        <v>0.0001968716953072652</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999977827397605</v>
+        <v>0.9985803386768571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999977827397605</v>
+        <v>0.9985803386768571</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9820146771418077</v>
+        <v>0.96746781719131</v>
       </c>
       <c r="C7" t="n">
-        <v>8.641305973069314e-05</v>
+        <v>7.609199204409439e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>2.848101086654195e-06</v>
+        <v>0.0003235493917167147</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01789606169737512</v>
+        <v>0.0322010242177687</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9820146771418077</v>
+        <v>0.96746781719131</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -675,19 +675,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.316930542876512e-09</v>
+        <v>8.479325708367926e-10</v>
       </c>
       <c r="C8" t="n">
-        <v>2.224977730436131e-05</v>
+        <v>1.899746274906387e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>8.357508903484945e-13</v>
+        <v>5.851205935067901e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999777479049294</v>
+        <v>0.9999975142851989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999777479049294</v>
+        <v>0.9999975142851989</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -707,19 +707,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.179779412843799e-09</v>
+        <v>1.634599220457862e-09</v>
       </c>
       <c r="C9" t="n">
-        <v>4.330326660831541e-05</v>
+        <v>1.54699800441863e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>3.046101047281609e-09</v>
+        <v>8.943659589687189e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999566875075112</v>
+        <v>0.9998950917894598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999566875075112</v>
+        <v>0.9998950917894598</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11046.fa</t>
+          <t>even_MAG-GUT11142.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001523655957344544</v>
+        <v>0.001526056286848795</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001711859178501929</v>
+        <v>1.465984458810067e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>7.066848974804745e-07</v>
+        <v>0.000352947387507677</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996757418015179</v>
+        <v>0.9981195303411846</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996757418015179</v>
+        <v>0.9981195303411846</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,23 +767,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11142.fa</t>
+          <t>even_MAG-GUT11171.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.690417480846231e-07</v>
+        <v>0.1070549456261832</v>
       </c>
       <c r="C11" t="n">
-        <v>1.499244815949891e-06</v>
+        <v>0.0005952767079942427</v>
       </c>
       <c r="D11" t="n">
-        <v>4.265920870107211e-09</v>
+        <v>0.0004738745749798936</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999983274475152</v>
+        <v>0.8918759030908426</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999983274475152</v>
+        <v>0.8918759030908426</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -799,23 +799,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11171.fa</t>
+          <t>even_MAG-GUT11187.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2482349486118213</v>
+        <v>0.002065934156875346</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003906514192181389</v>
+        <v>5.011816690332462e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>9.314183203277895e-06</v>
+        <v>0.0008200347596207409</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7478492230127941</v>
+        <v>0.9970639129166006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7478492230127941</v>
+        <v>0.9970639129166006</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -824,30 +824,30 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae(reject)</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11187.fa</t>
+          <t>even_MAG-GUT11911.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001410516209730506</v>
+        <v>2.763285302012294e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008240742742800246</v>
+        <v>5.774087233281988e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>2.085320852521953e-05</v>
+        <v>0.000652671407688551</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9977445563074643</v>
+        <v>0.9993387912197762</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9977445563074643</v>
+        <v>0.9993387912197762</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -863,23 +863,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11911.fa</t>
+          <t>even_MAG-GUT12.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.261768187052508e-06</v>
+        <v>0.009286273743724255</v>
       </c>
       <c r="C14" t="n">
-        <v>6.129801296792159e-06</v>
+        <v>7.316628509016146e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>5.165010689409626e-06</v>
+        <v>5.588590527999835e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999874434198267</v>
+        <v>0.9906505237224866</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999874434198267</v>
+        <v>0.9906505237224866</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -895,23 +895,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12.fa</t>
+          <t>even_MAG-GUT12458.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005088849819424462</v>
+        <v>1.25758410627025e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003272745885988831</v>
+        <v>7.710302836908485e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>6.942751487242161e-07</v>
+        <v>3.963499727533398e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.994583181316828</v>
+        <v>0.9999513971157815</v>
       </c>
       <c r="F15" t="n">
-        <v>0.994583181316828</v>
+        <v>0.9999513971157815</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -927,23 +927,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12458.fa</t>
+          <t>even_MAG-GUT12518.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.380947667893783e-05</v>
+        <v>0.0001060835265074797</v>
       </c>
       <c r="C16" t="n">
-        <v>3.079817891052786e-05</v>
+        <v>3.096874601271875e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>1.140984465671843e-07</v>
+        <v>0.0003848341340679115</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999452782459639</v>
+        <v>0.9995059854648233</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999452782459639</v>
+        <v>0.9995059854648233</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,23 +959,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12518.fa</t>
+          <t>even_MAG-GUT12750.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.742383991310954e-08</v>
+        <v>0.0001933671238980182</v>
       </c>
       <c r="C17" t="n">
-        <v>4.183892390686913e-06</v>
+        <v>2.397223900351158e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>2.150675482007277e-09</v>
+        <v>0.0002399790250615205</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999957965330939</v>
+        <v>0.9995642566271402</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999957965330939</v>
+        <v>0.9995642566271402</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -991,23 +991,23 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12750.fa</t>
+          <t>even_MAG-GUT12963.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.704587876400341e-08</v>
+        <v>0.0007333193608857373</v>
       </c>
       <c r="C18" t="n">
-        <v>2.126118452612235e-06</v>
+        <v>0.0002376062006363701</v>
       </c>
       <c r="D18" t="n">
-        <v>2.777670140760654e-09</v>
+        <v>0.001721021966547511</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999978540579983</v>
+        <v>0.9973080524719303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999978540579983</v>
+        <v>0.9973080524719303</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1023,23 +1023,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12963.fa</t>
+          <t>even_MAG-GUT13049.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.659030798296938e-05</v>
+        <v>3.686813956015899e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000926244312743058</v>
+        <v>0.0002136359289161739</v>
       </c>
       <c r="D19" t="n">
-        <v>7.273971515990516e-06</v>
+        <v>8.032490004829715e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.998979891407758</v>
+        <v>0.9997023523570795</v>
       </c>
       <c r="F19" t="n">
-        <v>0.998979891407758</v>
+        <v>0.9997023523570795</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1059,19 +1059,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.464624146804689e-05</v>
+        <v>0.0001095116789505966</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006308281065580539</v>
+        <v>5.800115945946635e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>1.559311896685781e-05</v>
+        <v>0.0004736535052484055</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9992989325330071</v>
+        <v>0.9993588336563416</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9992989325330071</v>
+        <v>0.9993588336563416</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.617931137504799e-05</v>
+        <v>0.04954788808963529</v>
       </c>
       <c r="C21" t="n">
-        <v>4.715047768185959e-08</v>
+        <v>3.003760289788042e-08</v>
       </c>
       <c r="D21" t="n">
-        <v>6.626882708290524e-07</v>
+        <v>6.096242975827995e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999631108498764</v>
+        <v>0.9503911194430035</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999631108498764</v>
+        <v>0.9503911194430035</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1123,19 +1123,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.862222500862276e-05</v>
+        <v>0.003581010174183033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006979202266921545</v>
+        <v>0.0001557353825142925</v>
       </c>
       <c r="D22" t="n">
-        <v>8.700137867019259e-11</v>
+        <v>1.473117660662523e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9992234574612979</v>
+        <v>0.996261781325642</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9992234574612979</v>
+        <v>0.996261781325642</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1151,23 +1151,23 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13363.fa</t>
+          <t>even_MAG-GUT13322.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.837761345295081e-09</v>
+        <v>1.23373845299638e-08</v>
       </c>
       <c r="C23" t="n">
-        <v>1.901367960394925e-06</v>
+        <v>1.216456046627159e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>3.994585668563529e-09</v>
+        <v>3.714759595223519e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999980857996927</v>
+        <v>0.9999874516261897</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999980857996927</v>
+        <v>0.9999874516261897</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1183,23 +1183,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13422.fa</t>
+          <t>even_MAG-GUT13363.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.017805325036031e-07</v>
+        <v>0.0001453813157110998</v>
       </c>
       <c r="C24" t="n">
-        <v>8.350118218387026e-06</v>
+        <v>1.296539776871359e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>4.063830556150165e-09</v>
+        <v>0.0002315310214695988</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999914440374186</v>
+        <v>0.9996217911230423</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999914440374186</v>
+        <v>0.9996217911230423</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1215,23 +1215,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13478.fa</t>
+          <t>even_MAG-GUT13422.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.483804866417177e-08</v>
+        <v>0.0004635452114983036</v>
       </c>
       <c r="C25" t="n">
-        <v>1.762232856996961e-06</v>
+        <v>2.923522946528663e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>1.605908947140453e-09</v>
+        <v>0.0003891861395154267</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999982113231853</v>
+        <v>0.9991443451260398</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999982113231853</v>
+        <v>0.9991443451260398</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1247,23 +1247,23 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13704.fa</t>
+          <t>even_MAG-GUT13478.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.899596576044596e-09</v>
+        <v>0.000123990772325065</v>
       </c>
       <c r="C26" t="n">
-        <v>1.089037461015328e-06</v>
+        <v>1.824772008083005e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>3.94507636867043e-10</v>
+        <v>0.000235229830586154</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999989076684348</v>
+        <v>0.9996389546250807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999989076684348</v>
+        <v>0.9996389546250807</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1279,23 +1279,23 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13897.fa</t>
+          <t>even_MAG-GUT13704.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.59382229086081e-05</v>
+        <v>0.0001205374674631557</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0009783291094735526</v>
+        <v>1.084965918087925e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>2.547120585092631e-06</v>
+        <v>0.0002193472839185183</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9989731855470327</v>
+        <v>0.9996590302827002</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9989731855470327</v>
+        <v>0.9996590302827002</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,23 +1311,23 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13987.fa</t>
+          <t>even_MAG-GUT13897.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.159890504634793e-08</v>
+        <v>0.0002815906651199038</v>
       </c>
       <c r="C28" t="n">
-        <v>1.076933517796094e-06</v>
+        <v>0.0001504663973906964</v>
       </c>
       <c r="D28" t="n">
-        <v>1.325678454124591e-09</v>
+        <v>0.0005658421302819228</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9999989101418986</v>
+        <v>0.9990021008072075</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9999989101418986</v>
+        <v>0.9990021008072075</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1343,23 +1343,23 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14072.fa</t>
+          <t>even_MAG-GUT13987.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.368240430223423e-09</v>
+        <v>0.0002185910034383241</v>
       </c>
       <c r="C29" t="n">
-        <v>4.665280148988423e-08</v>
+        <v>1.773583413626345e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>2.566941663751383e-10</v>
+        <v>0.0003458036043866472</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9999999497222639</v>
+        <v>0.9994338318087614</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9999999497222639</v>
+        <v>0.9994338318087614</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1375,23 +1375,23 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14257.fa</t>
+          <t>even_MAG-GUT14072.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.994850647754025e-05</v>
+        <v>3.484494765672802e-10</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002011407521234701</v>
+        <v>1.234776575214528e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>3.961925187058905e-10</v>
+        <v>4.079196164659953e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9997789103452065</v>
+        <v>0.9999946856788108</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9997789103452065</v>
+        <v>0.9999946856788108</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1407,23 +1407,23 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14283.fa</t>
+          <t>even_MAG-GUT14257.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.909470088042707e-08</v>
+        <v>0.0002369674405163988</v>
       </c>
       <c r="C31" t="n">
-        <v>4.150987964818077e-07</v>
+        <v>0.0001691580692834877</v>
       </c>
       <c r="D31" t="n">
-        <v>5.928892551913915e-10</v>
+        <v>6.141962496003419e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9999995652136134</v>
+        <v>0.9995877325277041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999995652136134</v>
+        <v>0.9995877325277041</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1439,23 +1439,23 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14308.fa</t>
+          <t>even_MAG-GUT14283.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.111680797898106e-07</v>
+        <v>0.0004505216520995743</v>
       </c>
       <c r="C32" t="n">
-        <v>2.270697164754153e-07</v>
+        <v>3.34302890216315e-07</v>
       </c>
       <c r="D32" t="n">
-        <v>7.511202100516963e-09</v>
+        <v>0.0002620577937792823</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9999988542510017</v>
+        <v>0.999287086251231</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9999988542510017</v>
+        <v>0.999287086251231</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1471,23 +1471,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14733.fa</t>
+          <t>even_MAG-GUT14308.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.141230067745666e-08</v>
+        <v>0.01936884157243894</v>
       </c>
       <c r="C33" t="n">
-        <v>5.42807137702161e-06</v>
+        <v>1.229866350303903e-07</v>
       </c>
       <c r="D33" t="n">
-        <v>1.526869919247155e-06</v>
+        <v>7.584164954001843e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9999929936464029</v>
+        <v>0.980555193791386</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999929936464029</v>
+        <v>0.980555193791386</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1503,23 +1503,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14745.fa</t>
+          <t>even_MAG-GUT14733.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.486814389960772e-06</v>
+        <v>1.117389921410076e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001957500262019862</v>
+        <v>5.741742786460325e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>7.625760033151918e-08</v>
+        <v>0.0007150768545774861</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9997976869018077</v>
+        <v>0.999279069663644</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9997976869018077</v>
+        <v>0.999279069663644</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1535,23 +1535,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15026.fa</t>
+          <t>even_MAG-GUT14745.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.384114061392801e-09</v>
+        <v>1.080717306068732e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>3.138950164966255e-06</v>
+        <v>0.000169723572493926</v>
       </c>
       <c r="D35" t="n">
-        <v>7.494121364693278e-10</v>
+        <v>0.0005458708348646885</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9999968539163088</v>
+        <v>0.9992735984195806</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9999968539163088</v>
+        <v>0.9992735984195806</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1567,23 +1567,23 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15223.fa</t>
+          <t>even_MAG-GUT15026.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.987404222943728e-08</v>
+        <v>0.0004074037586370994</v>
       </c>
       <c r="C36" t="n">
-        <v>2.707681358283548e-06</v>
+        <v>3.022628885216647e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>1.171059442836765e-06</v>
+        <v>0.0004793776359835771</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9999961013851566</v>
+        <v>0.9991101959764942</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9999961013851566</v>
+        <v>0.9991101959764942</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1599,23 +1599,23 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15497.fa</t>
+          <t>even_MAG-GUT15223.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0006009538778350832</v>
+        <v>1.055220805798797e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>1.798465278658728e-05</v>
+        <v>2.338544634813271e-07</v>
       </c>
       <c r="D37" t="n">
-        <v>2.069259812505912e-08</v>
+        <v>0.0002950825092664266</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9993810407767802</v>
+        <v>0.9997036284154645</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9993810407767802</v>
+        <v>0.9997036284154645</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1635,19 +1635,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.066317534163068e-05</v>
+        <v>0.000107819457631191</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0004778425403036419</v>
+        <v>3.48018320736698e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>1.221777472995578e-05</v>
+        <v>0.0003843502271059925</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9994992765096249</v>
+        <v>0.9994730284831892</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9994992765096249</v>
+        <v>0.9994730284831892</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1667,19 +1667,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9940574670592736</v>
+        <v>0.9837202404472921</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0001183942998828657</v>
+        <v>6.079198303186051e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>1.31685044393305e-05</v>
+        <v>0.000176655464332577</v>
       </c>
       <c r="E39" t="n">
-        <v>0.005810970136404151</v>
+        <v>0.01609702489007215</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9940574670592736</v>
+        <v>0.9837202404472921</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1699,19 +1699,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.386147133988252e-10</v>
+        <v>0.0001139833417769768</v>
       </c>
       <c r="C40" t="n">
-        <v>1.137345070598967e-06</v>
+        <v>2.856537706126504e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>2.089258611880952e-11</v>
+        <v>2.359893315618001e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9999988617954222</v>
+        <v>0.9998595611873609</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9999988617954222</v>
+        <v>0.9998595611873609</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1731,19 +1731,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0002380400984874282</v>
+        <v>0.0001729382760037733</v>
       </c>
       <c r="C41" t="n">
-        <v>0.000913297160709631</v>
+        <v>0.0003617014693031321</v>
       </c>
       <c r="D41" t="n">
-        <v>3.24695749324676e-06</v>
+        <v>0.0001658075192265284</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9988454157833097</v>
+        <v>0.9992995527354666</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9988454157833097</v>
+        <v>0.9992995527354666</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.790901698502329e-10</v>
+        <v>6.791108965787612e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>6.239073702701169e-07</v>
+        <v>9.810565934746565e-07</v>
       </c>
       <c r="D42" t="n">
-        <v>1.425578169700716e-09</v>
+        <v>0.0003461229908844175</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9999993742879614</v>
+        <v>0.9995849848628643</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9999993742879614</v>
+        <v>0.9995849848628643</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1795,19 +1795,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.775506153012614e-08</v>
+        <v>4.978263311670397e-07</v>
       </c>
       <c r="C43" t="n">
-        <v>1.083068242846744e-05</v>
+        <v>3.66908648668922e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>2.737600525461994e-05</v>
+        <v>0.002922133721610443</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9999617555572554</v>
+        <v>0.9970736993655717</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9999617555572554</v>
+        <v>0.9970736993655717</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1827,19 +1827,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0004384858415569424</v>
+        <v>0.002140167555826062</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001239577578430214</v>
+        <v>8.953570496756896e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>1.050519436186532e-05</v>
+        <v>0.0005646485282215799</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9983114313856509</v>
+        <v>0.9972056482109848</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9983114313856509</v>
+        <v>0.9972056482109848</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1859,19 +1859,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.355709856498149e-05</v>
+        <v>2.340761382244261e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0001726809735928075</v>
+        <v>3.30642490653082e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>1.079872343825705e-05</v>
+        <v>0.0002457378353431464</v>
       </c>
       <c r="E45" t="n">
-        <v>0.999802963204404</v>
+        <v>0.999727548125928</v>
       </c>
       <c r="F45" t="n">
-        <v>0.999802963204404</v>
+        <v>0.999727548125928</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1891,19 +1891,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0005576251979688446</v>
+        <v>1.952130382856007e-09</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000561650961302166</v>
+        <v>2.196478954648098e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0005576250071019248</v>
+        <v>0.0001931549816175466</v>
       </c>
       <c r="E46" t="n">
-        <v>0.998323098833627</v>
+        <v>0.9998046465872975</v>
       </c>
       <c r="F46" t="n">
-        <v>0.998323098833627</v>
+        <v>0.9998046465872975</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1923,19 +1923,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6.637404870819778e-09</v>
+        <v>0.0001919650552454754</v>
       </c>
       <c r="C47" t="n">
-        <v>5.812468510299153e-07</v>
+        <v>6.752488800633245e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>4.73194243843703e-10</v>
+        <v>0.0001254218671651903</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9999994116425499</v>
+        <v>0.9996819378287092</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9999994116425499</v>
+        <v>0.9996819378287092</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1955,19 +1955,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.706888839598116e-05</v>
+        <v>0.0009759309721368409</v>
       </c>
       <c r="C48" t="n">
-        <v>2.642791500012925e-05</v>
+        <v>1.61247813021222e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>5.371804710980235e-13</v>
+        <v>1.839040686259096e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9998965031960667</v>
+        <v>0.9990077603424924</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9998965031960667</v>
+        <v>0.9990077603424924</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1987,19 +1987,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.751990029592381e-09</v>
+        <v>0.0001903932078600782</v>
       </c>
       <c r="C49" t="n">
-        <v>2.336696189298978e-06</v>
+        <v>1.329468847676417e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>1.448594861560679e-10</v>
+        <v>0.0003815843420181009</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9999976594069612</v>
+        <v>0.9994266929812741</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9999976594069612</v>
+        <v>0.9994266929812741</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2019,19 +2019,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6.754228203428332e-09</v>
+        <v>0.0002323684676506671</v>
       </c>
       <c r="C50" t="n">
-        <v>1.804774069849095e-06</v>
+        <v>7.318911656602258e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>2.30244933216057e-09</v>
+        <v>0.000487370531357753</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9999981861692526</v>
+        <v>0.9992795291098259</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9999981861692526</v>
+        <v>0.9992795291098259</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2051,19 +2051,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8.449235653941524e-12</v>
+        <v>3.068449162316574e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>9.012654115822939e-08</v>
+        <v>9.847614812208613e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>5.84948998236931e-10</v>
+        <v>0.0002730608951391497</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9999999092800606</v>
+        <v>0.9996952698517565</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9999999092800606</v>
+        <v>0.9996952698517565</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2083,19 +2083,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0001200555226497669</v>
+        <v>0.0006744131588768813</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0001580558198096099</v>
+        <v>1.112790160363369e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>4.29493837645866e-06</v>
+        <v>0.0003110489830795247</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9997175937191642</v>
+        <v>0.99900340995644</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9997175937191642</v>
+        <v>0.99900340995644</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2115,19 +2115,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7.247970490398576e-09</v>
+        <v>0.0002495761753693008</v>
       </c>
       <c r="C53" t="n">
-        <v>1.407983590134884e-06</v>
+        <v>6.578767776798758e-07</v>
       </c>
       <c r="D53" t="n">
-        <v>2.054815297047101e-09</v>
+        <v>0.0002924581384545863</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9999985827136241</v>
+        <v>0.9994573078093983</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9999985827136241</v>
+        <v>0.9994573078093983</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2147,19 +2147,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.694060543766683e-10</v>
+        <v>0.0001147964479874768</v>
       </c>
       <c r="C54" t="n">
-        <v>8.141257395790657e-07</v>
+        <v>9.202952035864647e-07</v>
       </c>
       <c r="D54" t="n">
-        <v>1.57504974442657e-09</v>
+        <v>0.0005195867757061211</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9999991839298046</v>
+        <v>0.9993646964811028</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9999991839298046</v>
+        <v>0.9993646964811028</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2179,19 +2179,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9.491000606656621e-11</v>
+        <v>0.0001281376287149825</v>
       </c>
       <c r="C55" t="n">
-        <v>2.906124153466705e-07</v>
+        <v>6.39504340294277e-07</v>
       </c>
       <c r="D55" t="n">
-        <v>1.564175045096688e-10</v>
+        <v>0.0001745292634097782</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9999997091362572</v>
+        <v>0.999696693603535</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9999997091362572</v>
+        <v>0.999696693603535</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2211,19 +2211,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8.360554483244825e-10</v>
+        <v>4.140984542053792e-10</v>
       </c>
       <c r="C56" t="n">
-        <v>8.940805754160172e-06</v>
+        <v>1.163418165278225e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>4.919032473540202e-09</v>
+        <v>0.0002286089504823617</v>
       </c>
       <c r="E56" t="n">
-        <v>0.999991053439158</v>
+        <v>0.9997702272172539</v>
       </c>
       <c r="F56" t="n">
-        <v>0.999991053439158</v>
+        <v>0.9997702272172539</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2243,19 +2243,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9.725038914899117e-05</v>
+        <v>3.596261996751194e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>2.749456739880398e-05</v>
+        <v>3.551054108496685e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>1.030272981711321e-06</v>
+        <v>0.0001381364538533509</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9998742247704705</v>
+        <v>0.9998223498720706</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9998742247704705</v>
+        <v>0.9998223498720706</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2275,19 +2275,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0001191120974502827</v>
+        <v>4.026935532860189e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0009062629403391591</v>
+        <v>6.215623546429447e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>8.12199709006163e-06</v>
+        <v>0.0004053710886283248</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9989665029651204</v>
+        <v>0.9994922033205788</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9989665029651204</v>
+        <v>0.9994922033205788</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2307,19 +2307,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.357959474385421e-09</v>
+        <v>0.0002525594844786449</v>
       </c>
       <c r="C59" t="n">
-        <v>8.080781187707162e-07</v>
+        <v>5.577259514914709e-07</v>
       </c>
       <c r="D59" t="n">
-        <v>6.163587719136529e-10</v>
+        <v>0.0003833797824916172</v>
       </c>
       <c r="E59" t="n">
-        <v>0.999999188947563</v>
+        <v>0.9993635030070782</v>
       </c>
       <c r="F59" t="n">
-        <v>0.999999188947563</v>
+        <v>0.9993635030070782</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2339,19 +2339,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.170597936876626e-07</v>
+        <v>3.627012222776447e-06</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001973202986360774</v>
+        <v>0.007508868326161556</v>
       </c>
       <c r="D60" t="n">
-        <v>4.711760532463791e-12</v>
+        <v>3.236437704828225e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9980265799491337</v>
+        <v>0.9924871810178452</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9980265799491337</v>
+        <v>0.9924871810178452</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,19 +2371,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7.614400719671007e-08</v>
+        <v>9.475339134046283e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>8.104609744438114e-06</v>
+        <v>6.538668830004967e-07</v>
       </c>
       <c r="D61" t="n">
-        <v>5.371253880379909e-06</v>
+        <v>0.000284625611462052</v>
       </c>
       <c r="E61" t="n">
-        <v>0.999986447992368</v>
+        <v>0.9997137729877416</v>
       </c>
       <c r="F61" t="n">
-        <v>0.999986447992368</v>
+        <v>0.9997137729877416</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2403,19 +2403,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.252600111388197e-08</v>
+        <v>8.86152755075647e-08</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0005912911950617917</v>
+        <v>0.003265334136865073</v>
       </c>
       <c r="D62" t="n">
-        <v>7.14179933527363e-10</v>
+        <v>3.805230684886885e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9994086955647572</v>
+        <v>0.9967307720171745</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9994086955647572</v>
+        <v>0.9967307720171745</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2435,19 +2435,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.482978025132182e-09</v>
+        <v>2.560863211726696e-10</v>
       </c>
       <c r="C63" t="n">
-        <v>5.90050638588862e-06</v>
+        <v>3.672581281170295e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>1.169862875012493e-11</v>
+        <v>8.690306444031214e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9999940949989374</v>
+        <v>0.9999909421793416</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9999940949989374</v>
+        <v>0.9999909421793416</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2467,19 +2467,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9447082416431283</v>
+        <v>0.9656455065791143</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003946512478685449</v>
+        <v>0.0002998326400124293</v>
       </c>
       <c r="D64" t="n">
-        <v>1.836850648292505e-06</v>
+        <v>0.0003141042701983457</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05489527025835478</v>
+        <v>0.03374055651067499</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9447082416431283</v>
+        <v>0.9656455065791143</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2499,19 +2499,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.518167612644565e-08</v>
+        <v>0.0008413519725693835</v>
       </c>
       <c r="C65" t="n">
-        <v>1.285013301572048e-06</v>
+        <v>1.580938130256823e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>4.663564028807173e-09</v>
+        <v>0.0004816601761931265</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9999986851414583</v>
+        <v>0.9986754069131073</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9999986851414583</v>
+        <v>0.9986754069131073</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2531,19 +2531,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.439272774232368e-05</v>
+        <v>0.0009029270495321214</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0005612217722648021</v>
+        <v>0.0002178441827905023</v>
       </c>
       <c r="D66" t="n">
-        <v>1.853683058229558e-05</v>
+        <v>0.0007801413677582129</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9993558486694106</v>
+        <v>0.9980990873999191</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9993558486694106</v>
+        <v>0.9980990873999191</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2563,19 +2563,19 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.000358829182495987</v>
+        <v>0.0003485303960264216</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001368789342377372</v>
+        <v>8.756566953965533e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>7.784002272942506e-06</v>
+        <v>0.0004363523332575006</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9982645974728537</v>
+        <v>0.9991275516011764</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9982645974728537</v>
+        <v>0.9991275516011764</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2595,19 +2595,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.880097876586399e-10</v>
+        <v>2.580566866372992e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>3.254513402005031e-07</v>
+        <v>1.824552482057993e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>5.223088725228046e-10</v>
+        <v>6.302875082648815e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9999996738383411</v>
+        <v>0.9999093410280278</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9999996738383411</v>
+        <v>0.9999093410280278</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2627,19 +2627,19 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.687458520525711e-05</v>
+        <v>2.04644128296766e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>8.642600978047438e-05</v>
+        <v>4.862170851704973e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>5.298234107486866e-06</v>
+        <v>0.0002645761962598739</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9998814011709067</v>
+        <v>0.9997100972200587</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9998814011709067</v>
+        <v>0.9997100972200587</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2659,19 +2659,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.862957472450651e-10</v>
+        <v>0.0001909640644095605</v>
       </c>
       <c r="C70" t="n">
-        <v>1.981671072064349e-07</v>
+        <v>2.774701857075344e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>6.686070202843252e-14</v>
+        <v>3.257105280613616e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9999998015465302</v>
+        <v>0.9998030041284527</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9999998015465302</v>
+        <v>0.9998030041284527</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2691,19 +2691,19 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5.15336797509442e-08</v>
+        <v>1.659358000501881e-06</v>
       </c>
       <c r="C71" t="n">
-        <v>6.245800881761174e-06</v>
+        <v>3.655551581443806e-07</v>
       </c>
       <c r="D71" t="n">
-        <v>1.862758583686686e-06</v>
+        <v>0.0003042245636977217</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9999918399068549</v>
+        <v>0.9996937505231437</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9999918399068549</v>
+        <v>0.9996937505231437</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2723,19 +2723,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6.950009678886863e-09</v>
+        <v>0.0006571708726523223</v>
       </c>
       <c r="C72" t="n">
-        <v>1.095648707462023e-06</v>
+        <v>1.248391126707226e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>4.790626888643147e-09</v>
+        <v>0.000435749558802583</v>
       </c>
       <c r="E72" t="n">
-        <v>0.999998892610656</v>
+        <v>0.9989058311774185</v>
       </c>
       <c r="F72" t="n">
-        <v>0.999998892610656</v>
+        <v>0.9989058311774185</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2751,23 +2751,23 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23960.fa</t>
+          <t>even_MAG-GUT23746.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3.574197673688921e-09</v>
+        <v>1.742796593882007e-08</v>
       </c>
       <c r="C73" t="n">
-        <v>2.145423828149302e-06</v>
+        <v>2.847924909508175e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>2.815978361303946e-09</v>
+        <v>6.906200008285142e-07</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9999978481859958</v>
+        <v>0.9999708127029382</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9999978481859958</v>
+        <v>0.9999708127029382</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2783,23 +2783,23 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24070.fa</t>
+          <t>even_MAG-GUT23960.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0002643068438777549</v>
+        <v>0.0001395451312569082</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001021689320190615</v>
+        <v>1.376593871500517e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>4.484270172259206e-06</v>
+        <v>0.0006069243843352353</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9987095195657594</v>
+        <v>0.9992521538905362</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9987095195657594</v>
+        <v>0.9992521538905362</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2815,23 +2815,23 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24105.fa</t>
+          <t>even_MAG-GUT24070.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.50226114003464e-08</v>
+        <v>0.0003991007668077079</v>
       </c>
       <c r="C75" t="n">
-        <v>1.2139881117662e-06</v>
+        <v>0.000109138000331208</v>
       </c>
       <c r="D75" t="n">
-        <v>1.939120017387017e-09</v>
+        <v>0.0005958803156361674</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9999987690501567</v>
+        <v>0.9988958809172249</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9999987690501567</v>
+        <v>0.9988958809172249</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2847,23 +2847,23 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24113.fa</t>
+          <t>even_MAG-GUT24105.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7.333583289206895e-05</v>
+        <v>0.0003701910224142413</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0004508153463682661</v>
+        <v>9.967900092688688e-07</v>
       </c>
       <c r="D76" t="n">
-        <v>1.239430184624018e-05</v>
+        <v>0.0003078767891732261</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9994634545188934</v>
+        <v>0.9993209353984032</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9994634545188934</v>
+        <v>0.9993209353984032</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2879,23 +2879,23 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2417.fa</t>
+          <t>even_MAG-GUT24113.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5.445617227680637e-06</v>
+        <v>0.0006929179664766412</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001117013003569688</v>
+        <v>4.522899136157967e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>2.06396351510491e-05</v>
+        <v>0.0008298478523296507</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9988569017440516</v>
+        <v>0.9984320051898321</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9988569017440516</v>
+        <v>0.9984320051898321</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2911,23 +2911,23 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24441.fa</t>
+          <t>even_MAG-GUT24126.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.097332411330148e-08</v>
+        <v>5.721880869873216e-08</v>
       </c>
       <c r="C78" t="n">
-        <v>1.645909405036551e-06</v>
+        <v>2.166916680040325e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>2.029190271909819e-11</v>
+        <v>9.099984772706052e-07</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9999983330969788</v>
+        <v>0.9999773636159136</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999983330969788</v>
+        <v>0.9999773636159136</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2943,23 +2943,23 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24472.fa</t>
+          <t>even_MAG-GUT2417.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.027839567467496e-06</v>
+        <v>1.815452870323315e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>3.960100537038045e-05</v>
+        <v>8.030212277114426e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>3.328434282592891e-05</v>
+        <v>0.0004947798307694018</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9999250868122364</v>
+        <v>0.9994067635177561</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9999250868122364</v>
+        <v>0.9994067635177561</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2975,23 +2975,23 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24507.fa</t>
+          <t>even_MAG-GUT24441.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.653373264776676e-07</v>
+        <v>0.0004984210134975338</v>
       </c>
       <c r="C80" t="n">
-        <v>8.640586904209702e-07</v>
+        <v>5.596458577389525e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>2.305475371336975e-07</v>
+        <v>2.096181047318123e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9999987400564461</v>
+        <v>0.9994750207174519</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9999987400564461</v>
+        <v>0.9994750207174519</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3007,23 +3007,23 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24534.fa</t>
+          <t>even_MAG-GUT24472.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.114290302453181e-09</v>
+        <v>1.00190760109619e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>6.450145456302478e-07</v>
+        <v>4.513263526518693e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>6.8236227034254e-10</v>
+        <v>0.000410273040471572</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9999993521888016</v>
+        <v>0.999575194619991</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9999993521888016</v>
+        <v>0.999575194619991</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3039,23 +3039,23 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25621.fa</t>
+          <t>even_MAG-GUT24507.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6.696745769272198e-07</v>
+        <v>0.001291139825977248</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0001448741799501669</v>
+        <v>6.032569376611068e-07</v>
       </c>
       <c r="D82" t="n">
-        <v>1.405746069643083e-06</v>
+        <v>0.0004300158898229074</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9998530503994033</v>
+        <v>0.9982782410272623</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9998530503994033</v>
+        <v>0.9982782410272623</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3071,23 +3071,23 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25847.fa</t>
+          <t>even_MAG-GUT24534.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9.038419153650451e-09</v>
+        <v>0.0001422764686246635</v>
       </c>
       <c r="C83" t="n">
-        <v>5.44635821965161e-06</v>
+        <v>1.2963078953674e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>5.035395893633728e-06</v>
+        <v>0.0002659976546935303</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9999895092074675</v>
+        <v>0.9995904295687864</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9999895092074675</v>
+        <v>0.9995904295687864</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3103,23 +3103,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26365.fa</t>
+          <t>even_MAG-GUT25621.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7.711997405182878e-05</v>
+        <v>6.205201770013667e-06</v>
       </c>
       <c r="C84" t="n">
-        <v>2.758653254613625e-06</v>
+        <v>3.850216624863225e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>9.894919673317183e-09</v>
+        <v>0.0001195075066072854</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9999201114777739</v>
+        <v>0.9998704370749979</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9999201114777739</v>
+        <v>0.9998704370749979</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3135,23 +3135,23 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26493.fa</t>
+          <t>even_MAG-GUT25847.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.197076254657036e-05</v>
+        <v>2.968797621857487e-07</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0001440087448260296</v>
+        <v>3.42804405232754e-07</v>
       </c>
       <c r="D85" t="n">
-        <v>5.980345218554393e-06</v>
+        <v>0.0002981352208836604</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9998380401474088</v>
+        <v>0.9997012250949489</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9998380401474088</v>
+        <v>0.9997012250949489</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3167,23 +3167,23 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26496.fa</t>
+          <t>even_MAG-GUT26365.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6.212658536914802e-08</v>
+        <v>5.541479483767151e-06</v>
       </c>
       <c r="C86" t="n">
-        <v>2.673150456871765e-05</v>
+        <v>9.492116825080522e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>5.844065337782694e-06</v>
+        <v>1.34734902235858e-05</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9999673623035082</v>
+        <v>0.9999800358186102</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9999673623035082</v>
+        <v>0.9999800358186102</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3199,23 +3199,23 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26524.fa</t>
+          <t>even_MAG-GUT26493.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6.05732886854521e-06</v>
+        <v>9.272128287854789e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>2.898820794783232e-05</v>
+        <v>4.201470052173384e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>2.603779282463167e-05</v>
+        <v>0.0002480455589061219</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9999389166703589</v>
+        <v>0.9996550316881632</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9999389166703589</v>
+        <v>0.9996550316881632</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27018.fa</t>
+          <t>even_MAG-GUT26496.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.089531732326007e-11</v>
+        <v>1.497475320644741e-06</v>
       </c>
       <c r="C88" t="n">
-        <v>2.023980848582862e-07</v>
+        <v>6.891972677236011e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>9.231260180218942e-11</v>
+        <v>0.0002795348321894796</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9999997974987072</v>
+        <v>0.9997182784952222</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9999997974987072</v>
+        <v>0.9997182784952222</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3263,23 +3263,23 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27053.fa</t>
+          <t>even_MAG-GUT26524.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6.054483294773929e-08</v>
+        <v>3.588244106248601e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>5.943499663460007e-07</v>
+        <v>2.320908988488258e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>9.532887011965223e-10</v>
+        <v>0.0009870624011406471</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9999993441519119</v>
+        <v>0.998953846067912</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9999993441519119</v>
+        <v>0.998953846067912</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3295,23 +3295,23 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27063.fa</t>
+          <t>even_MAG-GUT27018.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.329915139273604e-09</v>
+        <v>2.907974077169601e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>3.278940094999864e-06</v>
+        <v>5.815107739428373e-07</v>
       </c>
       <c r="D90" t="n">
-        <v>2.646812868358676e-08</v>
+        <v>0.0001155391746634006</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9999966932618612</v>
+        <v>0.999854799573791</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9999966932618612</v>
+        <v>0.999854799573791</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3327,23 +3327,23 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT271.fa</t>
+          <t>even_MAG-GUT27053.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.077852077624876e-06</v>
+        <v>0.001584143255400877</v>
       </c>
       <c r="C91" t="n">
-        <v>5.469674407151533e-06</v>
+        <v>5.025711220001024e-07</v>
       </c>
       <c r="D91" t="n">
-        <v>2.757477045344088e-09</v>
+        <v>0.0001455912794071175</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9999914497160381</v>
+        <v>0.99826976289407</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9999914497160381</v>
+        <v>0.99826976289407</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3359,23 +3359,23 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27121.fa</t>
+          <t>even_MAG-GUT27063.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6.920499680169024e-10</v>
+        <v>1.778910388115649e-08</v>
       </c>
       <c r="C92" t="n">
-        <v>6.84489263531917e-07</v>
+        <v>8.016636055689203e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>6.682329943073784e-10</v>
+        <v>7.37221213707288e-05</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9999993141504535</v>
+        <v>0.9999182434534697</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9999993141504535</v>
+        <v>0.9999182434534697</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3391,23 +3391,23 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28243.fa</t>
+          <t>even_MAG-GUT271.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.52269237193979e-07</v>
+        <v>9.206465639642166e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>1.490323176406538e-05</v>
+        <v>6.036675660095737e-07</v>
       </c>
       <c r="D93" t="n">
-        <v>2.488401497571535e-08</v>
+        <v>4.612338188988705e-05</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9999846196149837</v>
+        <v>0.9998612082941476</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9999846196149837</v>
+        <v>0.9998612082941476</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3423,23 +3423,23 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28983.fa</t>
+          <t>even_MAG-GUT27121.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.09344686525828e-07</v>
+        <v>3.201711368764991e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>1.732495085152806e-06</v>
+        <v>1.153779225647877e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>1.839311772607397e-08</v>
+        <v>0.000105401455183082</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9999981397671106</v>
+        <v>0.9998614276519037</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9999981397671106</v>
+        <v>0.9998614276519037</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3455,23 +3455,23 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29293.fa</t>
+          <t>even_MAG-GUT28243.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.519481716266133e-08</v>
+        <v>5.793764350270078e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>4.366256867693075e-08</v>
+        <v>9.421048017285674e-07</v>
       </c>
       <c r="D95" t="n">
-        <v>1.969803648502123e-09</v>
+        <v>7.148007718528464e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9999999391728105</v>
+        <v>0.9998696401745103</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9999999391728105</v>
+        <v>0.9998696401745103</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3487,23 +3487,23 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29860.fa</t>
+          <t>even_MAG-GUT28983.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>7.17609994570045e-10</v>
+        <v>0.001277598355603674</v>
       </c>
       <c r="C96" t="n">
-        <v>4.49116258656292e-06</v>
+        <v>1.737137982601224e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>1.748125192004342e-09</v>
+        <v>0.0004976740966948664</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9999955063716782</v>
+        <v>0.998222990409719</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9999955063716782</v>
+        <v>0.998222990409719</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3519,23 +3519,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29870.fa</t>
+          <t>even_MAG-GUT29293.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.844578178736752e-05</v>
+        <v>5.685367510153619e-09</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0003112226214027739</v>
+        <v>1.328950028694143e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>6.981817405474764e-06</v>
+        <v>1.066025792959973e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9996633497794043</v>
+        <v>0.9999880051066742</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9996633497794043</v>
+        <v>0.9999880051066742</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3551,23 +3551,23 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29885.fa</t>
+          <t>even_MAG-GUT29860.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0005129008740603366</v>
+        <v>9.705726901275747e-10</v>
       </c>
       <c r="C98" t="n">
-        <v>7.823345831534009e-05</v>
+        <v>2.049001826058364e-07</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34380662503594e-12</v>
+        <v>0.0003139903349552373</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9994088656662806</v>
+        <v>0.9996858037942895</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9994088656662806</v>
+        <v>0.9996858037942895</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3583,23 +3583,23 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30098.fa</t>
+          <t>even_MAG-GUT29870.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0004206647905455647</v>
+        <v>9.667172687040222e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0001794393194602767</v>
+        <v>3.567241875095125e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>2.368695369964462e-06</v>
+        <v>0.0004465517414627075</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9993975271946243</v>
+        <v>0.999421104112916</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9993975271946243</v>
+        <v>0.999421104112916</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3615,23 +3615,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30099.fa</t>
+          <t>even_MAG-GUT29885.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.026484689805822e-09</v>
+        <v>0.004371681457817864</v>
       </c>
       <c r="C100" t="n">
-        <v>3.66499197064713e-07</v>
+        <v>4.205409481200886e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>1.194168963297317e-09</v>
+        <v>3.541276879413553e-07</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9999996292801493</v>
+        <v>0.9955859103196821</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9999996292801493</v>
+        <v>0.9955859103196821</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3647,23 +3647,23 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30439.fa</t>
+          <t>even_MAG-GUT30091.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.654510821328803e-05</v>
+        <v>8.730417412120805e-09</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0001226378954712608</v>
+        <v>1.029980267307334e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>3.653838057343317e-05</v>
+        <v>2.919068748582818e-07</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9998042786157419</v>
+        <v>0.9999893995600347</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9998042786157419</v>
+        <v>0.9999893995600347</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3679,23 +3679,23 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30479.fa</t>
+          <t>even_MAG-GUT30098.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.803982841732079e-05</v>
+        <v>0.0003832272449080729</v>
       </c>
       <c r="C102" t="n">
-        <v>6.478186020407164e-05</v>
+        <v>8.700167035967565e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>2.023734664762211e-05</v>
+        <v>0.0001396131791415384</v>
       </c>
       <c r="E102" t="n">
-        <v>0.999876940964731</v>
+        <v>0.9994684594089143</v>
       </c>
       <c r="F102" t="n">
-        <v>0.999876940964731</v>
+        <v>0.9994684594089143</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3711,23 +3711,23 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31533.fa</t>
+          <t>even_MAG-GUT30099.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.509707618483535e-05</v>
+        <v>0.0001357927612624978</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0001599656882032376</v>
+        <v>4.233823369288656e-07</v>
       </c>
       <c r="D103" t="n">
-        <v>1.093146636237739e-05</v>
+        <v>0.0001703160937928628</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9998140057692496</v>
+        <v>0.9996934677626077</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9998140057692496</v>
+        <v>0.9996934677626077</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3743,23 +3743,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31741.fa</t>
+          <t>even_MAG-GUT30439.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.844642323283094e-09</v>
+        <v>6.62993858334724e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>3.768604780855289e-07</v>
+        <v>5.42201503803031e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>4.767314085036458e-12</v>
+        <v>0.000290826727963202</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9999996212901123</v>
+        <v>0.9996374518711653</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9999996212901123</v>
+        <v>0.9996374518711653</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3775,23 +3775,23 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31931.fa</t>
+          <t>even_MAG-GUT30479.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0004009310857939607</v>
+        <v>0.0001021153914442518</v>
       </c>
       <c r="C105" t="n">
-        <v>5.63084504491102e-05</v>
+        <v>2.77363166070776e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>8.567413681469206e-08</v>
+        <v>0.0004020478574848489</v>
       </c>
       <c r="E105" t="n">
-        <v>0.99954267478962</v>
+        <v>0.9994930631194101</v>
       </c>
       <c r="F105" t="n">
-        <v>0.99954267478962</v>
+        <v>0.9994930631194101</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3807,23 +3807,23 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32018.fa</t>
+          <t>even_MAG-GUT31533.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1.906985034382447e-09</v>
+        <v>4.879543682789212e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.190150669815216e-07</v>
+        <v>6.279405182106857e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>9.866717604755437e-09</v>
+        <v>0.0003002819288478633</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9999998692112304</v>
+        <v>0.999644643229142</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9999998692112304</v>
+        <v>0.999644643229142</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3839,23 +3839,23 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32053.fa</t>
+          <t>even_MAG-GUT31741.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.838566724161811e-09</v>
+        <v>0.0007453726723117049</v>
       </c>
       <c r="C107" t="n">
-        <v>2.404482608268572e-06</v>
+        <v>2.278417228885411e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>1.629250046719118e-09</v>
+        <v>2.140726798875655e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>0.999997590049575</v>
+        <v>0.9992309416424706</v>
       </c>
       <c r="F107" t="n">
-        <v>0.999997590049575</v>
+        <v>0.9992309416424706</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3871,23 +3871,23 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32130.fa</t>
+          <t>even_MAG-GUT31931.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6.530388399759089e-07</v>
+        <v>0.0004201079639332791</v>
       </c>
       <c r="C108" t="n">
-        <v>3.443360505348167e-05</v>
+        <v>2.046392395973544e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>4.434888279741984e-12</v>
+        <v>2.309556437173077e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9999649133516717</v>
+        <v>0.9995547500792989</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9999649133516717</v>
+        <v>0.9995547500792989</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3903,23 +3903,23 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32255.fa</t>
+          <t>even_MAG-GUT32018.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.046408024337891e-08</v>
+        <v>0.0004427413277224123</v>
       </c>
       <c r="C109" t="n">
-        <v>7.941440831639148e-07</v>
+        <v>1.954735514806354e-07</v>
       </c>
       <c r="D109" t="n">
-        <v>8.58899767605331e-06</v>
+        <v>0.0002671606207522889</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9999905863941606</v>
+        <v>0.9992899025779739</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9999905863941606</v>
+        <v>0.9992899025779739</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3935,23 +3935,23 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32383.fa</t>
+          <t>even_MAG-GUT32053.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.961034258535998e-11</v>
+        <v>0.000191554314422718</v>
       </c>
       <c r="C110" t="n">
-        <v>1.926300559250213e-07</v>
+        <v>1.451425805241056e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>1.642191256803293e-11</v>
+        <v>0.0002619033348438698</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9999998073339118</v>
+        <v>0.9995450909249282</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9999998073339118</v>
+        <v>0.9995450909249282</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3967,23 +3967,23 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32557.fa</t>
+          <t>even_MAG-GUT32130.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.000135064687722098</v>
+        <v>4.567197807692336e-06</v>
       </c>
       <c r="C111" t="n">
-        <v>1.791729913213152e-05</v>
+        <v>4.268403977482415e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>1.718272857273018e-07</v>
+        <v>5.594879002516385e-07</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9998468461858601</v>
+        <v>0.9999521892745172</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9998468461858601</v>
+        <v>0.9999521892745172</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3999,23 +3999,23 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32882.fa</t>
+          <t>even_MAG-GUT32255.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3.173220881896365e-08</v>
+        <v>1.841773551522999e-06</v>
       </c>
       <c r="C112" t="n">
-        <v>4.062995522159652e-06</v>
+        <v>8.849569916512755e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>1.532509691920534e-06</v>
+        <v>0.0002810265694679414</v>
       </c>
       <c r="E112" t="n">
-        <v>0.999994372762577</v>
+        <v>0.9997082820870641</v>
       </c>
       <c r="F112" t="n">
-        <v>0.999994372762577</v>
+        <v>0.9997082820870641</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33095.fa</t>
+          <t>even_MAG-GUT32383.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.388440282084936e-05</v>
+        <v>4.874787868951785e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>6.418860007029854e-06</v>
+        <v>1.655826004514452e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>3.10686685622312e-09</v>
+        <v>3.487221015807633e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999596936303052</v>
+        <v>0.9999147240851478</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9999596936303052</v>
+        <v>0.9999147240851478</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4063,23 +4063,23 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33356.fa</t>
+          <t>even_MAG-GUT32557.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0004019035327020623</v>
+        <v>0.000373085688006342</v>
       </c>
       <c r="C114" t="n">
-        <v>6.199698067015755e-05</v>
+        <v>1.292679834354632e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>3.244653111818518e-07</v>
+        <v>3.346699141880877e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9995357750213165</v>
+        <v>0.9995921546407405</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9995357750213165</v>
+        <v>0.9995921546407405</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4095,23 +4095,23 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33657.fa</t>
+          <t>even_MAG-GUT32882.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>9.430655596054635e-08</v>
+        <v>1.718105104192257e-06</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0004082789962969309</v>
+        <v>2.457515537428663e-07</v>
       </c>
       <c r="D115" t="n">
-        <v>7.005999053656686e-09</v>
+        <v>0.0002550489051306315</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9995916196911481</v>
+        <v>0.9997429872382115</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9995916196911481</v>
+        <v>0.9997429872382115</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4127,23 +4127,23 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35486.fa</t>
+          <t>even_MAG-GUT33356.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3.138136216339156e-06</v>
+        <v>0.0003382193995929303</v>
       </c>
       <c r="C116" t="n">
-        <v>1.555166942191045e-05</v>
+        <v>4.446805978509672e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>6.240888731211461e-05</v>
+        <v>4.279956455482014e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9999189013070496</v>
+        <v>0.9996145342298739</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9999189013070496</v>
+        <v>0.9996145342298739</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4159,23 +4159,23 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35591.fa</t>
+          <t>even_MAG-GUT33604.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>7.690423352155214e-09</v>
+        <v>7.32946361190336e-08</v>
       </c>
       <c r="C117" t="n">
-        <v>1.140573639398727e-05</v>
+        <v>2.019123205760582e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>1.513613540122208e-09</v>
+        <v>7.345652503839445e-07</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9999885850595691</v>
+        <v>0.999979000908056</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9999885850595691</v>
+        <v>0.999979000908056</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4191,23 +4191,23 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35625.fa</t>
+          <t>even_MAG-GUT33657.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1.867554466086051e-09</v>
+        <v>2.115233949346258e-07</v>
       </c>
       <c r="C118" t="n">
-        <v>3.855238450085816e-07</v>
+        <v>0.0002030645859497288</v>
       </c>
       <c r="D118" t="n">
-        <v>5.902533208323424e-11</v>
+        <v>0.0001451448580124457</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9999996125495751</v>
+        <v>0.9996515790326429</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9999996125495751</v>
+        <v>0.9996515790326429</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4223,23 +4223,23 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35626.fa</t>
+          <t>even_MAG-GUT35486.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>8.070404216239653e-05</v>
+        <v>2.764121764125332e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>0.000989676229658274</v>
+        <v>1.58108265517834e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>1.688192940975415e-05</v>
+        <v>0.001592379818257953</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9989127377987697</v>
+        <v>0.9983641681375491</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9989127377987697</v>
+        <v>0.9983641681375491</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4255,23 +4255,23 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35760.fa</t>
+          <t>even_MAG-GUT35591.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3.384400250704917e-09</v>
+        <v>3.147129636748158e-09</v>
       </c>
       <c r="C120" t="n">
-        <v>2.024260436970308e-07</v>
+        <v>2.182899067054015e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>3.046320756947802e-10</v>
+        <v>0.000160362924003156</v>
       </c>
       <c r="E120" t="n">
-        <v>0.999999793884924</v>
+        <v>0.9998374510298002</v>
       </c>
       <c r="F120" t="n">
-        <v>0.999999793884924</v>
+        <v>0.9998374510298002</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4287,23 +4287,23 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35945.fa</t>
+          <t>even_MAG-GUT35625.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0003178421430268791</v>
+        <v>0.0001973216416276451</v>
       </c>
       <c r="C121" t="n">
-        <v>9.892661731631525e-05</v>
+        <v>6.005053484661219e-07</v>
       </c>
       <c r="D121" t="n">
-        <v>6.398866248057102e-07</v>
+        <v>0.0002555145157793734</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9995825913530321</v>
+        <v>0.9995465633372445</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9995825913530321</v>
+        <v>0.9995465633372445</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4319,23 +4319,23 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35948.fa</t>
+          <t>even_MAG-GUT35626.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0007248858812716432</v>
+        <v>5.478118369080758e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.486642000227817e-05</v>
+        <v>6.1828208031728e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>9.417636693073638e-07</v>
+        <v>0.0006152534539378388</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9992593059350567</v>
+        <v>0.9992681371543397</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9992593059350567</v>
+        <v>0.9992681371543397</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4351,23 +4351,23 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36139.fa</t>
+          <t>even_MAG-GUT35760.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3.853380043219315e-10</v>
+        <v>0.0004580108527250584</v>
       </c>
       <c r="C123" t="n">
-        <v>1.795040167236005e-07</v>
+        <v>6.713303458524024e-07</v>
       </c>
       <c r="D123" t="n">
-        <v>1.272743564243772e-10</v>
+        <v>9.028920432550778e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9999998199833711</v>
+        <v>0.9994510286126036</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9999998199833711</v>
+        <v>0.9994510286126036</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4383,23 +4383,23 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3624.fa</t>
+          <t>even_MAG-GUT35807.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>5.362595994863033e-05</v>
+        <v>4.830800678739927e-07</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0006088550162350927</v>
+        <v>1.428635732283456e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>1.98379645473854e-05</v>
+        <v>4.251371633573833e-07</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9993176810592689</v>
+        <v>0.9999848054254459</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9993176810592689</v>
+        <v>0.9999848054254459</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4415,23 +4415,23 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3630.fa</t>
+          <t>even_MAG-GUT35948.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2.203433064176841e-07</v>
+        <v>0.004248476240106651</v>
       </c>
       <c r="C125" t="n">
-        <v>3.125445912283413e-06</v>
+        <v>3.885359071919823e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>8.936529640328083e-10</v>
+        <v>0.001460041819607159</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9999966533171284</v>
+        <v>0.994252628349567</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9999966533171284</v>
+        <v>0.994252628349567</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4447,23 +4447,23 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36419.fa</t>
+          <t>even_MAG-GUT36103.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2.069481620251252e-07</v>
+        <v>2.572632946565011e-07</v>
       </c>
       <c r="C126" t="n">
-        <v>5.344916247793951e-07</v>
+        <v>3.109705773013378e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>5.508668495934312e-08</v>
+        <v>1.226721278230812e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9999992034735282</v>
+        <v>0.9999954063096541</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9999992034735282</v>
+        <v>0.9999954063096541</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4479,23 +4479,23 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36577.fa</t>
+          <t>even_MAG-GUT36139.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5.768623432752528e-10</v>
+        <v>0.000513259174546952</v>
       </c>
       <c r="C127" t="n">
-        <v>6.478961168999481e-07</v>
+        <v>8.256185109180885e-07</v>
       </c>
       <c r="D127" t="n">
-        <v>1.198196613755471e-09</v>
+        <v>5.380649379565136e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9999993503288241</v>
+        <v>0.9994321087131465</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9999993503288241</v>
+        <v>0.9994321087131465</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4511,23 +4511,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36580.fa</t>
+          <t>even_MAG-GUT3624.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.000836508865491821</v>
+        <v>0.0001607079222999317</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0003281057988324948</v>
+        <v>6.024475508972592e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>4.94035729459107e-06</v>
+        <v>0.0003369058314954831</v>
       </c>
       <c r="E128" t="n">
-        <v>0.998830444978381</v>
+        <v>0.9994421414911149</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998830444978381</v>
+        <v>0.9994421414911149</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4543,23 +4543,23 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3674.fa</t>
+          <t>even_MAG-GUT3630.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3.43952402613207e-05</v>
+        <v>0.003643664432558223</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0007802994159925861</v>
+        <v>4.449695791838234e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>1.741288983409166e-05</v>
+        <v>0.0001281925022853892</v>
       </c>
       <c r="E129" t="n">
-        <v>0.999167892453912</v>
+        <v>0.9962236933693644</v>
       </c>
       <c r="F129" t="n">
-        <v>0.999167892453912</v>
+        <v>0.9962236933693644</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4575,23 +4575,23 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36916.fa</t>
+          <t>even_MAG-GUT36419.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.949167695253974e-08</v>
+        <v>0.002206429502718128</v>
       </c>
       <c r="C130" t="n">
-        <v>7.29872534755328e-06</v>
+        <v>5.684129770252781e-07</v>
       </c>
       <c r="D130" t="n">
-        <v>2.701567774446735e-06</v>
+        <v>0.0003499084798244594</v>
       </c>
       <c r="E130" t="n">
-        <v>0.999989950215201</v>
+        <v>0.9974430936044805</v>
       </c>
       <c r="F130" t="n">
-        <v>0.999989950215201</v>
+        <v>0.9974430936044805</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4607,23 +4607,23 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36922.fa</t>
+          <t>even_MAG-GUT36577.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.000110965308006316</v>
+        <v>6.018072533796816e-05</v>
       </c>
       <c r="C131" t="n">
-        <v>0.001840861595192644</v>
+        <v>9.258839595889317e-07</v>
       </c>
       <c r="D131" t="n">
-        <v>1.647175067475261e-05</v>
+        <v>0.0003458184717197469</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9980317013461263</v>
+        <v>0.9995930749189826</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9980317013461263</v>
+        <v>0.9995930749189826</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4639,23 +4639,23 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37063.fa</t>
+          <t>even_MAG-GUT36580.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3.225823206469326e-05</v>
+        <v>0.0004712279771287172</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0001044241524604439</v>
+        <v>1.277904965022886e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>4.704162535408793e-06</v>
+        <v>0.0001966795818765256</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9998586134529394</v>
+        <v>0.9993193133913445</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9998586134529394</v>
+        <v>0.9993193133913445</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4671,23 +4671,23 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37277.fa</t>
+          <t>even_MAG-GUT3674.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3.171967359523124e-05</v>
+        <v>3.782433060107121e-05</v>
       </c>
       <c r="C133" t="n">
-        <v>0.000159827272141313</v>
+        <v>8.140230577804333e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>2.775802131747666e-08</v>
+        <v>0.0004544423763017336</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9998084252962421</v>
+        <v>0.9994263309873191</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9998084252962421</v>
+        <v>0.9994263309873191</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4703,23 +4703,23 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37384.fa</t>
+          <t>even_MAG-GUT36794.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.354882220130308e-05</v>
+        <v>2.865614122922701e-07</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0006150749773816979</v>
+        <v>6.939795646946295e-07</v>
       </c>
       <c r="D134" t="n">
-        <v>9.283888560679385e-06</v>
+        <v>5.023368600492287e-08</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9993620923118562</v>
+        <v>0.9999989692253369</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9993620923118562</v>
+        <v>0.9999989692253369</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4735,23 +4735,23 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT374.fa</t>
+          <t>even_MAG-GUT36916.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>8.052377661822435e-06</v>
+        <v>6.373002286635414e-07</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0002174802402760365</v>
+        <v>4.896753525208495e-07</v>
       </c>
       <c r="D135" t="n">
-        <v>5.775760859364534e-06</v>
+        <v>0.0003664566417641256</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9997686916212027</v>
+        <v>0.9996324163826548</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9997686916212027</v>
+        <v>0.9996324163826548</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4767,23 +4767,23 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3747.fa</t>
+          <t>even_MAG-GUT36922.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1.227461241042391e-05</v>
+        <v>8.406487927982072e-05</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0005082557394216496</v>
+        <v>0.0001864510507161834</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34660379751673e-05</v>
+        <v>0.0006444564965341503</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9994660036101928</v>
+        <v>0.9990850275734698</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9994660036101928</v>
+        <v>0.9990850275734698</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4799,55 +4799,55 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37858.fa</t>
+          <t>even_MAG-GUT37063.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9684878751562401</v>
+        <v>0.0001039652331534769</v>
       </c>
       <c r="C137" t="n">
-        <v>5.254950517551445e-05</v>
+        <v>1.654467869695137e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>5.133432383069072e-05</v>
+        <v>0.0002140187032931183</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0314082410147537</v>
+        <v>0.9996654713848564</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9684878751562401</v>
+        <v>0.9996654713848564</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37878.fa</t>
+          <t>even_MAG-GUT37167.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7.100091275714805e-10</v>
+        <v>1.166509256485831e-07</v>
       </c>
       <c r="C138" t="n">
-        <v>1.213531151029823e-05</v>
+        <v>7.251145095393195e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>1.855487433185697e-09</v>
+        <v>1.37745073465377e-07</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9999878621229932</v>
+        <v>0.9999924944589055</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9999878621229932</v>
+        <v>0.9999924944589055</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4863,23 +4863,23 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38093.fa</t>
+          <t>even_MAG-GUT37277.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6.838112138136964e-09</v>
+        <v>5.764901146890921e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>3.323119807452199e-08</v>
+        <v>5.003194960787017e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>9.424251830796544e-11</v>
+        <v>4.69052008128152e-05</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9999999598364473</v>
+        <v>0.9998454138381103</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9999999598364473</v>
+        <v>0.9998454138381103</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4895,23 +4895,23 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38182.fa</t>
+          <t>even_MAG-GUT37384.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>9.166937392634892e-05</v>
+        <v>3.871485090910289e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0006732953879982472</v>
+        <v>6.515923974497392e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>9.301693093909679e-06</v>
+        <v>0.0006121383103839368</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9992257335449815</v>
+        <v>0.9992839875989619</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9992257335449815</v>
+        <v>0.9992839875989619</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4927,23 +4927,23 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38547.fa</t>
+          <t>even_MAG-GUT374.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>6.645855817534987e-05</v>
+        <v>1.312630516885086e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0001872324081796039</v>
+        <v>7.63620356784642e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>8.199454548216423e-07</v>
+        <v>0.0002399950542316692</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9997454890881902</v>
+        <v>0.9997392424370315</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9997454890881902</v>
+        <v>0.9997392424370315</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4959,23 +4959,23 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38625.fa</t>
+          <t>even_MAG-GUT3747.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0003763438473596523</v>
+        <v>2.78733412059356e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>6.222756245852466e-05</v>
+        <v>5.842078716499959e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>4.031651423837967e-07</v>
+        <v>0.0004600455801420856</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9995610254250393</v>
+        <v>0.999453660291487</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9995610254250393</v>
+        <v>0.999453660291487</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4991,55 +4991,55 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38697.fa</t>
+          <t>even_MAG-GUT37858.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1.851593788591545e-08</v>
+        <v>0.8883011911938927</v>
       </c>
       <c r="C143" t="n">
-        <v>3.489953891796899e-07</v>
+        <v>0.0001223747873977097</v>
       </c>
       <c r="D143" t="n">
-        <v>2.085146826232936e-09</v>
+        <v>0.0001261772895183326</v>
       </c>
       <c r="E143" t="n">
-        <v>0.999999630403526</v>
+        <v>0.1114502567291912</v>
       </c>
       <c r="F143" t="n">
-        <v>0.999999630403526</v>
+        <v>0.8883011911938927</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39017.fa</t>
+          <t>even_MAG-GUT37878.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.357523177724193e-08</v>
+        <v>3.54066607914033e-10</v>
       </c>
       <c r="C144" t="n">
-        <v>4.062557909919334e-07</v>
+        <v>1.06538559151429e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>1.221537086846228e-09</v>
+        <v>0.0002050658040535938</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9999995789474403</v>
+        <v>0.9997938684562881</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9999995789474403</v>
+        <v>0.9997938684562881</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5055,55 +5055,55 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39107.fa</t>
+          <t>even_MAG-GUT38093.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.8631338050194343</v>
+        <v>6.097634743013234e-10</v>
       </c>
       <c r="C145" t="n">
-        <v>9.424331779991701e-05</v>
+        <v>9.100779901460239e-07</v>
       </c>
       <c r="D145" t="n">
-        <v>4.458448431835431e-09</v>
+        <v>1.541323869163418e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1367719472043175</v>
+        <v>0.9999975479883771</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8631338050194343</v>
+        <v>0.9999975479883771</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39357.fa</t>
+          <t>even_MAG-GUT38182.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.0001114201088645166</v>
+        <v>7.607328362446643e-05</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0001123803801721365</v>
+        <v>7.203063021286589e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>1.527531050540064e-11</v>
+        <v>0.0005242110264561025</v>
       </c>
       <c r="E146" t="n">
-        <v>0.999776199495688</v>
+        <v>0.9993276850597066</v>
       </c>
       <c r="F146" t="n">
-        <v>0.999776199495688</v>
+        <v>0.9993276850597066</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5119,23 +5119,23 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39513.fa</t>
+          <t>even_MAG-GUT38551.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.001075934133928676</v>
+        <v>1.034098906216055e-06</v>
       </c>
       <c r="C147" t="n">
-        <v>0.001934764087029869</v>
+        <v>4.926523914375268e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>1.551643205859537e-05</v>
+        <v>6.949655615247503e-07</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9969737853469829</v>
+        <v>0.9999490056963884</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9969737853469829</v>
+        <v>0.9999490056963884</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5151,23 +5151,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39589.fa</t>
+          <t>even_MAG-GUT38625.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4.965669091490828e-09</v>
+        <v>0.0002645359203861404</v>
       </c>
       <c r="C148" t="n">
-        <v>1.602686754558547e-06</v>
+        <v>5.607428935272949e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>2.309713414312318e-09</v>
+        <v>5.163202499033211e-05</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9999983900378629</v>
+        <v>0.9996782246256882</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9999983900378629</v>
+        <v>0.9996782246256882</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5183,23 +5183,23 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39606.fa</t>
+          <t>even_MAG-GUT38697.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.194503810207329e-08</v>
+        <v>0.0006687979652165545</v>
       </c>
       <c r="C149" t="n">
-        <v>9.380495886083284e-06</v>
+        <v>2.697499492238346e-07</v>
       </c>
       <c r="D149" t="n">
-        <v>5.353403066053917e-09</v>
+        <v>0.0002530617917855905</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9999905922056728</v>
+        <v>0.9990778704930486</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9999905922056728</v>
+        <v>0.9990778704930486</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5215,23 +5215,23 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39805.fa</t>
+          <t>even_MAG-GUT39017.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1.531837766140821e-05</v>
+        <v>0.0005313682406084537</v>
       </c>
       <c r="C150" t="n">
-        <v>2.667225395069674e-05</v>
+        <v>4.016758613931134e-07</v>
       </c>
       <c r="D150" t="n">
-        <v>4.433579293412074e-08</v>
+        <v>0.0002811725925537394</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9999579650325949</v>
+        <v>0.9991870574909765</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9999579650325949</v>
+        <v>0.9991870574909765</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5247,55 +5247,55 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40706.fa</t>
+          <t>even_MAG-GUT39107.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>5.517617016541436e-08</v>
+        <v>0.8501238994288741</v>
       </c>
       <c r="C151" t="n">
-        <v>1.986220471569317e-06</v>
+        <v>0.0002510719464970394</v>
       </c>
       <c r="D151" t="n">
-        <v>1.379284788699848e-09</v>
+        <v>0.0002610957676112095</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9999979572240735</v>
+        <v>0.1493639328570177</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9999979572240735</v>
+        <v>0.8501238994288741</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41020.fa</t>
+          <t>even_MAG-GUT39357.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.51534093503099e-07</v>
+        <v>0.005021512974533627</v>
       </c>
       <c r="C152" t="n">
-        <v>5.327437457071716e-06</v>
+        <v>3.114010134048826e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>9.916770748472369e-07</v>
+        <v>8.788885310180981e-07</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9999935293513746</v>
+        <v>0.9949464680355949</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9999935293513746</v>
+        <v>0.9949464680355949</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5311,23 +5311,23 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41148.fa</t>
+          <t>even_MAG-GUT39513.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0006620827593720423</v>
+        <v>0.0007207087504479045</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0004657053551797394</v>
+        <v>0.0001124720875402091</v>
       </c>
       <c r="D153" t="n">
-        <v>1.456802867333038e-06</v>
+        <v>0.001235560899805435</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9988707550825809</v>
+        <v>0.9979312582622065</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9988707550825809</v>
+        <v>0.9979312582622065</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5343,23 +5343,23 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41817.fa</t>
+          <t>even_MAG-GUT39589.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2.739792865380917e-07</v>
+        <v>0.0001706176693856656</v>
       </c>
       <c r="C154" t="n">
-        <v>3.49524404377549e-06</v>
+        <v>1.333736627634167e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>1.424457923581301e-09</v>
+        <v>0.0003548524944686184</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9999962293522118</v>
+        <v>0.999473196099518</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9999962293522118</v>
+        <v>0.999473196099518</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5375,23 +5375,23 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41911.fa</t>
+          <t>even_MAG-GUT39606.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.436463069709645e-07</v>
+        <v>3.083701650586725e-09</v>
       </c>
       <c r="C155" t="n">
-        <v>9.466574236628285e-06</v>
+        <v>4.464988392385234e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>1.115012762304113e-05</v>
+        <v>0.0001136250326094483</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9999792396518333</v>
+        <v>0.9998819068952964</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9999792396518333</v>
+        <v>0.9998819068952964</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5407,23 +5407,23 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42468.fa</t>
+          <t>even_MAG-GUT39805.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3.939516159364719e-07</v>
+        <v>2.422658927533079e-05</v>
       </c>
       <c r="C156" t="n">
-        <v>1.265323599329196e-06</v>
+        <v>3.398313027234159e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>6.476585264766549e-09</v>
+        <v>6.633816232888489e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9999983342481994</v>
+        <v>0.9999060369353685</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9999983342481994</v>
+        <v>0.9999060369353685</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5439,23 +5439,23 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42537.fa</t>
+          <t>even_MAG-GUT40706.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0002496756306760498</v>
+        <v>0.001200988835126691</v>
       </c>
       <c r="C157" t="n">
-        <v>5.852663007226821e-05</v>
+        <v>1.895893611984742e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>8.559710908681342e-07</v>
+        <v>0.0002654652690768246</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9996909417681608</v>
+        <v>0.9985316500021845</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9996909417681608</v>
+        <v>0.9985316500021845</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5471,55 +5471,55 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4268.fa</t>
+          <t>even_MAG-GUT41020.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.977883985605789</v>
+        <v>3.871141718436255e-06</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0001078568910204006</v>
+        <v>2.970547010306367e-07</v>
       </c>
       <c r="D158" t="n">
-        <v>5.084457130779334e-09</v>
+        <v>0.0002546586781287795</v>
       </c>
       <c r="E158" t="n">
-        <v>0.02200815241873353</v>
+        <v>0.9997411731254517</v>
       </c>
       <c r="F158" t="n">
-        <v>0.977883985605789</v>
+        <v>0.9997411731254517</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42699.fa</t>
+          <t>even_MAG-GUT41148.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.002530732706144609</v>
+        <v>0.001793073167743589</v>
       </c>
       <c r="C159" t="n">
-        <v>5.033573947403211e-05</v>
+        <v>1.971053586488222e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>1.227721196059569e-06</v>
+        <v>0.000157451464885974</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9974177038331853</v>
+        <v>0.9980297648315056</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9974177038331853</v>
+        <v>0.9980297648315056</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5535,23 +5535,23 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42861.fa</t>
+          <t>even_MAG-GUT41817.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.003043738081547581</v>
+        <v>2.769345172466021e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>1.649849235009097e-05</v>
+        <v>5.346762108280458e-07</v>
       </c>
       <c r="D160" t="n">
-        <v>8.223965330238702e-06</v>
+        <v>3.31147544800331e-05</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9969315394607722</v>
+        <v>0.9999386571175845</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9969315394607722</v>
+        <v>0.9999386571175845</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5567,23 +5567,23 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42867.fa</t>
+          <t>even_MAG-GUT41911.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3.872276790531878e-06</v>
+        <v>1.729157823668949e-06</v>
       </c>
       <c r="C161" t="n">
-        <v>1.365272950903485e-05</v>
+        <v>3.432123547516634e-07</v>
       </c>
       <c r="D161" t="n">
-        <v>3.739917773499423e-08</v>
+        <v>0.0003036206917177009</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9999824375945228</v>
+        <v>0.9996943069381039</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9999824375945228</v>
+        <v>0.9996943069381039</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5599,23 +5599,23 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4300.fa</t>
+          <t>even_MAG-GUT42358.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2.351918812751173e-09</v>
+        <v>2.645396707758968e-06</v>
       </c>
       <c r="C162" t="n">
-        <v>8.184402381224357e-06</v>
+        <v>4.247181712630282e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>5.140409103253866e-10</v>
+        <v>5.785745200042146e-07</v>
       </c>
       <c r="E162" t="n">
-        <v>0.999991812731659</v>
+        <v>0.999954304211646</v>
       </c>
       <c r="F162" t="n">
-        <v>0.999991812731659</v>
+        <v>0.999954304211646</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5631,55 +5631,55 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43178.fa</t>
+          <t>even_MAG-GUT42468.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9910189819199443</v>
+        <v>0.0008656328331140178</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0001231643147537774</v>
+        <v>1.292610532299448e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>8.098377066826159e-06</v>
+        <v>0.0001679525661288182</v>
       </c>
       <c r="E163" t="n">
-        <v>0.008849755388235077</v>
+        <v>0.9989651219902249</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9910189819199443</v>
+        <v>0.9989651219902249</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43366.fa</t>
+          <t>even_MAG-GUT42537.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1.107862666637701e-06</v>
+        <v>0.0006044360988705708</v>
       </c>
       <c r="C164" t="n">
-        <v>1.274934504633682e-05</v>
+        <v>4.274604853419064e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>2.862727210602664e-07</v>
+        <v>9.242462427246022e-05</v>
       </c>
       <c r="E164" t="n">
-        <v>0.999985856519566</v>
+        <v>0.9992988646720036</v>
       </c>
       <c r="F164" t="n">
-        <v>0.999985856519566</v>
+        <v>0.9992988646720036</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5695,55 +5695,55 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43797.fa</t>
+          <t>even_MAG-GUT4268.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0001267480356143165</v>
+        <v>0.9695781783284469</v>
       </c>
       <c r="C165" t="n">
-        <v>0.001101181493991859</v>
+        <v>0.0002504357627316055</v>
       </c>
       <c r="D165" t="n">
-        <v>1.354592650452026e-05</v>
+        <v>0.0002708005087191534</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9987585245438892</v>
+        <v>0.0299005854001023</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9987585245438892</v>
+        <v>0.9695781783284469</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44374.fa</t>
+          <t>even_MAG-GUT42699.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0001804525570921844</v>
+        <v>0.0009265341175841798</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00108683148252884</v>
+        <v>4.069733829356788e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>1.143385172913242e-05</v>
+        <v>0.001298715621734252</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9987212821086499</v>
+        <v>0.9977706805268522</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9987212821086499</v>
+        <v>0.9977706805268522</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5759,23 +5759,23 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4440.fa</t>
+          <t>even_MAG-GUT42861.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.0002435425723811249</v>
+        <v>0.01297384394703376</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0003065355179451787</v>
+        <v>5.335266103729856e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>5.038090768325841e-06</v>
+        <v>0.0009238761359882174</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9994448838189053</v>
+        <v>0.9860969446508743</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9994448838189053</v>
+        <v>0.9860969446508743</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5791,23 +5791,23 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44474.fa</t>
+          <t>even_MAG-GUT42867.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.669122060286097e-07</v>
+        <v>0.0002035776883142061</v>
       </c>
       <c r="C168" t="n">
-        <v>7.668216604441647e-06</v>
+        <v>1.043353885950299e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>1.203308342749728e-05</v>
+        <v>6.383117981228154e-05</v>
       </c>
       <c r="E168" t="n">
-        <v>0.999980131787762</v>
+        <v>0.9997315477779876</v>
       </c>
       <c r="F168" t="n">
-        <v>0.999980131787762</v>
+        <v>0.9997315477779876</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5823,23 +5823,23 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45009.fa</t>
+          <t>even_MAG-GUT4300.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>5.391176005513894e-08</v>
+        <v>4.867473854250265e-10</v>
       </c>
       <c r="C169" t="n">
-        <v>6.347340132371436e-07</v>
+        <v>4.504499302531969e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>1.067318890649538e-08</v>
+        <v>2.715123101397376e-05</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9999993006810378</v>
+        <v>0.9999683437829361</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9999993006810378</v>
+        <v>0.9999683437829361</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5855,55 +5855,55 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45172.fa</t>
+          <t>even_MAG-GUT43178.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2.181076669996143e-08</v>
+        <v>0.9897164599373242</v>
       </c>
       <c r="C170" t="n">
-        <v>2.197203563724553e-06</v>
+        <v>5.3865238469898e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>3.134970985635447e-08</v>
+        <v>0.0005066462844704487</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9999977496359598</v>
+        <v>0.009723028539735404</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9999977496359598</v>
+        <v>0.9897164599373242</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45417.fa</t>
+          <t>even_MAG-GUT43258.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>9.89444906288655e-09</v>
+        <v>6.081323749417149e-08</v>
       </c>
       <c r="C171" t="n">
-        <v>4.145739104045705e-07</v>
+        <v>2.083297028283202e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>1.031557105622124e-08</v>
+        <v>1.782927384322543e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9999995652160694</v>
+        <v>0.9999773232890954</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9999995652160694</v>
+        <v>0.9999773232890954</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5919,23 +5919,23 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45512.fa</t>
+          <t>even_MAG-GUT43366.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1.384279446429274e-09</v>
+        <v>0.001345436541819341</v>
       </c>
       <c r="C172" t="n">
-        <v>1.238367942362177e-08</v>
+        <v>3.560786422765662e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>7.680094983535457e-13</v>
+        <v>0.002677926600892443</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9999999862312732</v>
+        <v>0.9959730760708655</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9999999862312732</v>
+        <v>0.9959730760708655</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5951,23 +5951,23 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45615.fa</t>
+          <t>even_MAG-GUT43797.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>3.784990832968127e-05</v>
+        <v>0.0005088003903724595</v>
       </c>
       <c r="C173" t="n">
-        <v>0.001485842126321701</v>
+        <v>8.756211386245756e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2.210473874675517e-05</v>
+        <v>0.0006515056401927903</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9984542032266017</v>
+        <v>0.9987521318555723</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9984542032266017</v>
+        <v>0.9987521318555723</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5983,23 +5983,23 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45814.fa</t>
+          <t>even_MAG-GUT44374.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2.428437817881844e-09</v>
+        <v>0.00246362539323819</v>
       </c>
       <c r="C174" t="n">
-        <v>1.347088306751475e-07</v>
+        <v>0.0002253302347736803</v>
       </c>
       <c r="D174" t="n">
-        <v>1.504177926770647e-10</v>
+        <v>0.002373913156274321</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9999998627123138</v>
+        <v>0.9949371312157138</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9999998627123138</v>
+        <v>0.9949371312157138</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6015,23 +6015,23 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46219.fa</t>
+          <t>even_MAG-GUT4440.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2.620950343149998e-06</v>
+        <v>0.001730110495727625</v>
       </c>
       <c r="C175" t="n">
-        <v>1.164200466145834e-05</v>
+        <v>2.215844466650491e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>1.152722756156267e-09</v>
+        <v>0.0002789872698675391</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9999857358922727</v>
+        <v>0.9979687437897383</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9999857358922727</v>
+        <v>0.9979687437897383</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6047,23 +6047,23 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46397.fa</t>
+          <t>even_MAG-GUT44474.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.0005247694656093989</v>
+        <v>2.398623913515653e-06</v>
       </c>
       <c r="C176" t="n">
-        <v>5.104791996110596e-05</v>
+        <v>6.598256558616174e-07</v>
       </c>
       <c r="D176" t="n">
-        <v>8.565644582126836e-08</v>
+        <v>0.0004389131733096709</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9994240969579837</v>
+        <v>0.9995580283771209</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9994240969579837</v>
+        <v>0.9995580283771209</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6079,23 +6079,23 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46540.fa</t>
+          <t>even_MAG-GUT45009.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1.343464756227162e-08</v>
+        <v>0.001967405784425803</v>
       </c>
       <c r="C177" t="n">
-        <v>1.011996855682245e-07</v>
+        <v>3.943525074278204e-07</v>
       </c>
       <c r="D177" t="n">
-        <v>1.001080459790054e-08</v>
+        <v>0.0006147854949481295</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9999998753548622</v>
+        <v>0.9974174143681187</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9999998753548622</v>
+        <v>0.9974174143681187</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6111,23 +6111,23 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46652.fa</t>
+          <t>even_MAG-GUT45172.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.0001986555344671807</v>
+        <v>0.0009828430737189627</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0001570218910490482</v>
+        <v>1.545203682452602e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>5.470284218875733e-07</v>
+        <v>0.0008386277351458307</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9996437755460618</v>
+        <v>0.9981769839874528</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9996437755460618</v>
+        <v>0.9981769839874528</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6143,23 +6143,23 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46914.fa</t>
+          <t>even_MAG-GUT45417.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>8.851361941616197e-09</v>
+        <v>0.0001681172987102691</v>
       </c>
       <c r="C179" t="n">
-        <v>6.87673162845083e-06</v>
+        <v>3.534566822045199e-07</v>
       </c>
       <c r="D179" t="n">
-        <v>8.090014587194807e-10</v>
+        <v>0.0002220016172548088</v>
       </c>
       <c r="E179" t="n">
-        <v>0.999993113608008</v>
+        <v>0.9996095276273528</v>
       </c>
       <c r="F179" t="n">
-        <v>0.999993113608008</v>
+        <v>0.9996095276273528</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6175,23 +6175,23 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46965.fa</t>
+          <t>even_MAG-GUT45512.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1.828401920054623e-06</v>
+        <v>5.692092526254067e-11</v>
       </c>
       <c r="C180" t="n">
-        <v>1.782681651706692e-06</v>
+        <v>1.830057943974458e-07</v>
       </c>
       <c r="D180" t="n">
-        <v>2.424925046087203e-09</v>
+        <v>2.341332207904709e-07</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9999963864915032</v>
+        <v>0.9999995828040639</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9999963864915032</v>
+        <v>0.9999995828040639</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6207,23 +6207,23 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47144.fa</t>
+          <t>even_MAG-GUT45615.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1.967679941827421e-05</v>
+        <v>0.0001686001969077003</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0005675023854043361</v>
+        <v>0.0001383947869131341</v>
       </c>
       <c r="D181" t="n">
-        <v>1.083563578882975e-05</v>
+        <v>0.0005161519919972467</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9994019851793886</v>
+        <v>0.9991768530241819</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9994019851793886</v>
+        <v>0.9991768530241819</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6239,23 +6239,23 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47256.fa</t>
+          <t>even_MAG-GUT45814.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6.718313156015754e-10</v>
+        <v>0.0002933484726246722</v>
       </c>
       <c r="C182" t="n">
-        <v>2.085801991132838e-07</v>
+        <v>4.640865461309233e-07</v>
       </c>
       <c r="D182" t="n">
-        <v>2.058752562149232e-10</v>
+        <v>0.0001416861897547451</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9999997905420944</v>
+        <v>0.9995645012510744</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9999997905420944</v>
+        <v>0.9995645012510744</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6271,23 +6271,23 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48321.fa</t>
+          <t>even_MAG-GUT46219.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.004512021467446028</v>
+        <v>0.001290917947902619</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0005431600044970311</v>
+        <v>6.832670864626214e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>5.266736460132683e-05</v>
+        <v>0.0004183929851257667</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9948921511634555</v>
+        <v>0.998283856396107</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9948921511634555</v>
+        <v>0.998283856396107</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6303,23 +6303,23 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4950.fa</t>
+          <t>even_MAG-GUT46397.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3.482285231688942e-05</v>
+        <v>0.0003882685321033914</v>
       </c>
       <c r="C184" t="n">
-        <v>7.291032798247553e-05</v>
+        <v>2.861176963263067e-06</v>
       </c>
       <c r="D184" t="n">
-        <v>2.640844900660979e-09</v>
+        <v>2.136374386150511e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9998922641788557</v>
+        <v>0.9995875065470718</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9998922641788557</v>
+        <v>0.9995875065470718</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6335,23 +6335,23 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49526.fa</t>
+          <t>even_MAG-GUT46540.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5.377575885506846e-06</v>
+        <v>0.00149148714663175</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0006565303949628395</v>
+        <v>3.219555303163077e-07</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0198622794760741</v>
+        <v>0.0001778025730542586</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9794758125530775</v>
+        <v>0.9983303883247837</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9794758125530775</v>
+        <v>0.9983303883247837</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6367,23 +6367,23 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50240.fa</t>
+          <t>even_MAG-GUT46652.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1.113453922505639e-10</v>
+        <v>0.0003921073175731842</v>
       </c>
       <c r="C186" t="n">
-        <v>5.674864447496473e-07</v>
+        <v>1.659230206286201e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>3.076975443926022e-10</v>
+        <v>0.0002026813779521046</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9999994320945124</v>
+        <v>0.9993886190024118</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9999994320945124</v>
+        <v>0.9993886190024118</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6399,23 +6399,23 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51357.fa</t>
+          <t>even_MAG-GUT46914.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1.93382810713787e-06</v>
+        <v>0.000107561729635378</v>
       </c>
       <c r="C187" t="n">
-        <v>1.978955136449432e-05</v>
+        <v>3.004850498724671e-06</v>
       </c>
       <c r="D187" t="n">
-        <v>2.594434995351799e-08</v>
+        <v>0.0004559930427902352</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9999782506761784</v>
+        <v>0.9994334403770756</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9999782506761784</v>
+        <v>0.9994334403770756</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51377.fa</t>
+          <t>even_MAG-GUT46965.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2.259463764117433e-06</v>
+        <v>2.402264452296267e-07</v>
       </c>
       <c r="C188" t="n">
-        <v>1.673757681490028e-05</v>
+        <v>3.971310113722891e-06</v>
       </c>
       <c r="D188" t="n">
-        <v>3.665124029762709e-08</v>
+        <v>2.845578220678516e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9999809663081808</v>
+        <v>0.9999673326812343</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9999809663081808</v>
+        <v>0.9999673326812343</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6463,23 +6463,23 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5168.fa</t>
+          <t>even_MAG-GUT47144.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2.441490323376234e-06</v>
+        <v>0.0003853856888309505</v>
       </c>
       <c r="C189" t="n">
-        <v>7.144218500500975e-05</v>
+        <v>9.049830448301772e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>2.04882662608728e-11</v>
+        <v>0.0006681484523085431</v>
       </c>
       <c r="E189" t="n">
-        <v>0.9999261163041834</v>
+        <v>0.9988559675543774</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9999261163041834</v>
+        <v>0.9988559675543774</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6495,23 +6495,23 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52007.fa</t>
+          <t>even_MAG-GUT47256.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1.566312400632387e-06</v>
+        <v>0.0001131291688054329</v>
       </c>
       <c r="C190" t="n">
-        <v>8.135542490622632e-06</v>
+        <v>4.9203658583106e-07</v>
       </c>
       <c r="D190" t="n">
-        <v>1.145989217992683e-08</v>
+        <v>0.000191508690221991</v>
       </c>
       <c r="E190" t="n">
-        <v>0.9999902866852165</v>
+        <v>0.9996948701043866</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9999902866852165</v>
+        <v>0.9996948701043866</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6527,23 +6527,23 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52821.fa</t>
+          <t>even_MAG-GUT48321.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.000245789971429477</v>
+        <v>0.0006307046366745343</v>
       </c>
       <c r="C191" t="n">
-        <v>9.874108385927109e-05</v>
+        <v>1.758243909052147e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>1.456368253026978e-07</v>
+        <v>0.002407457637058903</v>
       </c>
       <c r="E191" t="n">
-        <v>0.9996553233078859</v>
+        <v>0.996944255287176</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9996553233078859</v>
+        <v>0.996944255287176</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6559,23 +6559,23 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52995.fa</t>
+          <t>even_MAG-GUT4950.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.833976796397038e-10</v>
+        <v>6.286347446066149e-05</v>
       </c>
       <c r="C192" t="n">
-        <v>1.142473734590866e-06</v>
+        <v>4.271573596872546e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>2.435934182986581e-10</v>
+        <v>8.143727683042812e-06</v>
       </c>
       <c r="E192" t="n">
-        <v>0.9999988567992744</v>
+        <v>0.9998862770618876</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9999988567992744</v>
+        <v>0.9998862770618876</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6591,23 +6591,23 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53012.fa</t>
+          <t>even_MAG-GUT49526.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.0003004839854958674</v>
+        <v>6.789041774356134e-05</v>
       </c>
       <c r="C193" t="n">
-        <v>9.106998330789749e-05</v>
+        <v>0.005701403829649238</v>
       </c>
       <c r="D193" t="n">
-        <v>2.177037304331835e-05</v>
+        <v>0.02334904326181162</v>
       </c>
       <c r="E193" t="n">
-        <v>0.9995866756581528</v>
+        <v>0.9708816624907957</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9995866756581528</v>
+        <v>0.9708816624907957</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6623,23 +6623,23 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53015.fa</t>
+          <t>even_MAG-GUT50240.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>5.217569087749459e-09</v>
+        <v>3.489306741996054e-05</v>
       </c>
       <c r="C194" t="n">
-        <v>8.740043593914973e-07</v>
+        <v>1.9061595985342e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>1.18383344113415e-09</v>
+        <v>8.815708803923548e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>0.9999991195942379</v>
+        <v>0.9998750436849423</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9999991195942379</v>
+        <v>0.9998750436849423</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6655,23 +6655,23 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53019.fa</t>
+          <t>even_MAG-GUT51357.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>7.27207834183177e-08</v>
+        <v>7.512525723513095e-05</v>
       </c>
       <c r="C195" t="n">
-        <v>2.950698356715904e-06</v>
+        <v>1.21326824515356e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>2.045311426592771e-07</v>
+        <v>8.277973740564292e-05</v>
       </c>
       <c r="E195" t="n">
-        <v>0.9999967720497172</v>
+        <v>0.9998408817371141</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9999967720497172</v>
+        <v>0.9998408817371141</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -6687,23 +6687,23 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53033.fa</t>
+          <t>even_MAG-GUT51377.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1.849928488570541e-10</v>
+        <v>3.74762103170575e-05</v>
       </c>
       <c r="C196" t="n">
-        <v>5.931888101684483e-07</v>
+        <v>9.311021617985223e-07</v>
       </c>
       <c r="D196" t="n">
-        <v>8.088250971204349e-10</v>
+        <v>7.989685231965835e-05</v>
       </c>
       <c r="E196" t="n">
-        <v>0.9999994058173719</v>
+        <v>0.9998816958352016</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9999994058173719</v>
+        <v>0.9998816958352016</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -6719,23 +6719,23 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53236.fa</t>
+          <t>even_MAG-GUT5168.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0003469757280434342</v>
+        <v>5.52574941487096e-06</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001613550710037631</v>
+        <v>5.817641621850144e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>2.654541617876934e-06</v>
+        <v>1.38352549160238e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>0.9994890146593349</v>
+        <v>0.9999349143088749</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9994890146593349</v>
+        <v>0.9999349143088749</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6751,23 +6751,23 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5396.fa</t>
+          <t>even_MAG-GUT52007.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3.734727300793409e-08</v>
+        <v>4.870229811170966e-05</v>
       </c>
       <c r="C198" t="n">
-        <v>1.46413599640478e-05</v>
+        <v>1.186186174039274e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>1.064937595790628e-06</v>
+        <v>6.503290503758e-05</v>
       </c>
       <c r="E198" t="n">
-        <v>0.9999842563551671</v>
+        <v>0.9998850786106767</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9999842563551671</v>
+        <v>0.9998850786106767</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6783,55 +6783,55 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5430.fa</t>
+          <t>even_MAG-GUT52821.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.9961028384842614</v>
+        <v>0.0005103295262703233</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0002016693051873187</v>
+        <v>5.554447471883841e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>6.661947345950361e-06</v>
+        <v>0.0001521418737894932</v>
       </c>
       <c r="E199" t="n">
-        <v>0.003688830263205191</v>
+        <v>0.9993319741524682</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9961028384842614</v>
+        <v>0.9993319741524682</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54519.fa</t>
+          <t>even_MAG-GUT52992.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2.268307734666434e-05</v>
+        <v>1.873266274302317e-08</v>
       </c>
       <c r="C200" t="n">
-        <v>0.001119200236487144</v>
+        <v>1.325103786753724e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>2.694270032515595e-06</v>
+        <v>2.219967497688074e-07</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9988554224161336</v>
+        <v>0.9999984341668008</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9988554224161336</v>
+        <v>0.9999984341668008</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -6847,23 +6847,23 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57196.fa</t>
+          <t>even_MAG-GUT52995.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.001287919008746542</v>
+        <v>3.625758436870844e-05</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0004652060618590869</v>
+        <v>1.153694177414902e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>0.000123183853580138</v>
+        <v>0.0003006732608854559</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9981236910758142</v>
+        <v>0.9996619154605684</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9981236910758142</v>
+        <v>0.9996619154605684</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -6879,23 +6879,23 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57273.fa</t>
+          <t>even_MAG-GUT53012.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.0001017815710121247</v>
+        <v>0.0006538394473953926</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0003975869538880195</v>
+        <v>9.531480173340571e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>6.089145003051822e-09</v>
+        <v>0.005077525800491316</v>
       </c>
       <c r="E202" t="n">
-        <v>0.9995006253859549</v>
+        <v>0.9941733199503799</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9995006253859549</v>
+        <v>0.9941733199503799</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -6911,23 +6911,23 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57352.fa</t>
+          <t>even_MAG-GUT53015.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.0002006285503671003</v>
+        <v>0.0005000554909416385</v>
       </c>
       <c r="C203" t="n">
-        <v>8.438672381868744e-05</v>
+        <v>6.444430633313041e-07</v>
       </c>
       <c r="D203" t="n">
-        <v>1.962958738969275e-10</v>
+        <v>0.0002912279066477498</v>
       </c>
       <c r="E203" t="n">
-        <v>0.9997149845295183</v>
+        <v>0.9992080721593473</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9997149845295183</v>
+        <v>0.9992080721593473</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -6943,23 +6943,23 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57658.fa</t>
+          <t>even_MAG-GUT53019.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0005570228590656097</v>
+        <v>0.0002916873410500268</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0005618230587538357</v>
+        <v>3.572814112181831e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0005557693716500016</v>
+        <v>0.0005908173175934747</v>
       </c>
       <c r="E204" t="n">
-        <v>0.9983253847105305</v>
+        <v>0.9991139225272443</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9983253847105305</v>
+        <v>0.9991139225272443</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -6975,23 +6975,23 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57680.fa</t>
+          <t>even_MAG-GUT53033.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>7.680463318600483e-06</v>
+        <v>2.444842099865927e-05</v>
       </c>
       <c r="C205" t="n">
-        <v>7.625565986485244e-05</v>
+        <v>9.07443077682758e-07</v>
       </c>
       <c r="D205" t="n">
-        <v>2.884725560679048e-05</v>
+        <v>0.0002796727359015515</v>
       </c>
       <c r="E205" t="n">
-        <v>0.9998872166212096</v>
+        <v>0.9996949714000221</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9998872166212096</v>
+        <v>0.9996949714000221</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -7007,23 +7007,23 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57690.fa</t>
+          <t>even_MAG-GUT53236.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.0005392911604727953</v>
+        <v>0.0001858450328787121</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0005439999990068581</v>
+        <v>1.388907525946513e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0005369945079783758</v>
+        <v>0.000196345868610501</v>
       </c>
       <c r="E206" t="n">
-        <v>0.9983797143325419</v>
+        <v>0.9996039200232514</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9983797143325419</v>
+        <v>0.9996039200232514</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7039,23 +7039,23 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57924.fa</t>
+          <t>even_MAG-GUT5396.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0005312995998469568</v>
+        <v>1.837660124744427e-07</v>
       </c>
       <c r="C207" t="n">
-        <v>6.795338235353969e-06</v>
+        <v>1.238311867101812e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>1.330203295621153e-07</v>
+        <v>0.0007544839464170002</v>
       </c>
       <c r="E207" t="n">
-        <v>0.999461772041588</v>
+        <v>0.9992329491688996</v>
       </c>
       <c r="F207" t="n">
-        <v>0.999461772041588</v>
+        <v>0.9992329491688996</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -7071,55 +7071,55 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58031.fa</t>
+          <t>even_MAG-GUT5430.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>8.250880815172323e-09</v>
+        <v>0.9969978640965033</v>
       </c>
       <c r="C208" t="n">
-        <v>3.623969853689252e-05</v>
+        <v>5.957898099543876e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>5.991426955023598e-08</v>
+        <v>0.0008516321843547453</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9999636921363128</v>
+        <v>0.002090924738146596</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9999636921363128</v>
+        <v>0.9969978640965033</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58152.fa</t>
+          <t>even_MAG-GUT54519.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.000513900568412765</v>
+        <v>0.0002184286975485909</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0001248877539896474</v>
+        <v>8.784425095276057e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>4.862913281289682e-07</v>
+        <v>0.0004697234422078591</v>
       </c>
       <c r="E209" t="n">
-        <v>0.9993607253862695</v>
+        <v>0.9992240036092908</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9993607253862695</v>
+        <v>0.9992240036092908</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -7135,55 +7135,55 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58303.fa</t>
+          <t>even_MAG-GUT54583.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.5863853661413709</v>
+        <v>2.196684614603113e-08</v>
       </c>
       <c r="C210" t="n">
-        <v>7.381389928422256e-05</v>
+        <v>5.059112659403489e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>8.858003398858044e-08</v>
+        <v>1.547332951848724e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4135407313793109</v>
+        <v>0.9999478395736081</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5863853661413709</v>
+        <v>0.9999478395736081</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae(reject)</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58392.fa</t>
+          <t>even_MAG-GUT55383.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3.740912530832597e-06</v>
+        <v>1.600012938238855e-07</v>
       </c>
       <c r="C211" t="n">
-        <v>2.452388610422423e-05</v>
+        <v>1.312154034619472e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>2.221907104208886e-14</v>
+        <v>3.675760652769544e-07</v>
       </c>
       <c r="E211" t="n">
-        <v>0.9999717352013427</v>
+        <v>0.9999863508822946</v>
       </c>
       <c r="F211" t="n">
-        <v>0.9999717352013427</v>
+        <v>0.9999863508822946</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -7199,23 +7199,23 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59019.fa</t>
+          <t>even_MAG-GUT56334.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1.719705306618285e-08</v>
+        <v>1.630687109433633e-09</v>
       </c>
       <c r="C212" t="n">
-        <v>2.015207355768258e-05</v>
+        <v>3.491908059866301e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>7.362420715662008e-08</v>
+        <v>3.602873474954295e-05</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9999797571051821</v>
+        <v>0.9999290505539646</v>
       </c>
       <c r="F212" t="n">
-        <v>0.9999797571051821</v>
+        <v>0.9999290505539646</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7231,23 +7231,23 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59273.fa</t>
+          <t>even_MAG-GUT57196.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>3.788425913616008e-09</v>
+        <v>0.0002236572808503378</v>
       </c>
       <c r="C213" t="n">
-        <v>6.00462606618027e-07</v>
+        <v>1.774256579345747e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>3.143752568935325e-10</v>
+        <v>0.002581057419733465</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9999993954345923</v>
+        <v>0.9971775427336228</v>
       </c>
       <c r="F213" t="n">
-        <v>0.9999993954345923</v>
+        <v>0.9971775427336228</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7263,23 +7263,23 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59497.fa</t>
+          <t>even_MAG-GUT57273.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0004265008390912902</v>
+        <v>0.001549515674318887</v>
       </c>
       <c r="C214" t="n">
-        <v>8.479893262658487e-05</v>
+        <v>0.000145557669950039</v>
       </c>
       <c r="D214" t="n">
-        <v>2.379315169005702e-06</v>
+        <v>1.07627682562002e-05</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9994863209131131</v>
+        <v>0.9982941638874748</v>
       </c>
       <c r="F214" t="n">
-        <v>0.9994863209131131</v>
+        <v>0.9982941638874748</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7295,23 +7295,23 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59827.fa</t>
+          <t>even_MAG-GUT57352.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>9.323982207755282e-09</v>
+        <v>0.01160141886033452</v>
       </c>
       <c r="C215" t="n">
-        <v>6.836566417709004e-07</v>
+        <v>2.425965177129685e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>6.898965645519342e-10</v>
+        <v>1.388719990212459e-06</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9999993063294793</v>
+        <v>0.9883729327679041</v>
       </c>
       <c r="F215" t="n">
-        <v>0.9999993063294793</v>
+        <v>0.9883729327679041</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7327,55 +7327,55 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60274.fa</t>
+          <t>even_MAG-GUT57658.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.9859603493018999</v>
+        <v>6.88255459763348e-07</v>
       </c>
       <c r="C216" t="n">
-        <v>2.890821852145938e-05</v>
+        <v>2.951508625822845e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>4.862046700164636e-09</v>
+        <v>1.380796727282298e-07</v>
       </c>
       <c r="E216" t="n">
-        <v>0.01401073761753193</v>
+        <v>0.9999962221562417</v>
       </c>
       <c r="F216" t="n">
-        <v>0.9859603493018999</v>
+        <v>0.9999962221562417</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60850.fa</t>
+          <t>even_MAG-GUT57680.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2.326807889197168e-05</v>
+        <v>3.612131181423002e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0003515910907346888</v>
+        <v>4.36854047525934e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>6.237472523055833e-06</v>
+        <v>0.0004935876945826761</v>
       </c>
       <c r="E217" t="n">
-        <v>0.9996189033578502</v>
+        <v>0.9994659224531278</v>
       </c>
       <c r="F217" t="n">
-        <v>0.9996189033578502</v>
+        <v>0.9994659224531278</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7391,23 +7391,23 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61128.fa</t>
+          <t>even_MAG-GUT57690.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3.214260452668694e-08</v>
+        <v>2.567626496423611e-06</v>
       </c>
       <c r="C218" t="n">
-        <v>1.663814237083902e-05</v>
+        <v>2.941922308792373e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>4.938998424392235e-06</v>
+        <v>2.85710404865568e-07</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9999783907166003</v>
+        <v>0.9999942047407899</v>
       </c>
       <c r="F218" t="n">
-        <v>0.9999783907166003</v>
+        <v>0.9999942047407899</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7423,23 +7423,23 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61164.fa</t>
+          <t>even_MAG-GUT57924.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1.045811262254837e-08</v>
+        <v>3.281747811860107e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>2.668388617601521e-06</v>
+        <v>1.625951972530426e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>1.886857379185739e-06</v>
+        <v>6.544110196924053e-05</v>
       </c>
       <c r="E219" t="n">
-        <v>0.9999954342958906</v>
+        <v>0.9999001154679397</v>
       </c>
       <c r="F219" t="n">
-        <v>0.9999954342958906</v>
+        <v>0.9999001154679397</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7455,23 +7455,23 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61486.fa</t>
+          <t>even_MAG-GUT58031.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1.712886663235928e-05</v>
+        <v>1.610440781787114e-08</v>
       </c>
       <c r="C220" t="n">
-        <v>2.549289636684597e-06</v>
+        <v>3.452621613642448e-05</v>
       </c>
       <c r="D220" t="n">
-        <v>1.121977549553188e-07</v>
+        <v>0.000473386225265928</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9999802096459761</v>
+        <v>0.9994920714541898</v>
       </c>
       <c r="F220" t="n">
-        <v>0.9999802096459761</v>
+        <v>0.9994920714541898</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7487,23 +7487,23 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62028.fa</t>
+          <t>even_MAG-GUT58303.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.9943425105538219</v>
+        <v>0.6708953404309259</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0001294219345758681</v>
+        <v>4.588036639570557e-05</v>
       </c>
       <c r="D221" t="n">
-        <v>6.120845427397912e-07</v>
+        <v>0.000347803536050656</v>
       </c>
       <c r="E221" t="n">
-        <v>0.005527455427059548</v>
+        <v>0.3287109756666278</v>
       </c>
       <c r="F221" t="n">
-        <v>0.9943425105538219</v>
+        <v>0.6708953404309259</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7512,30 +7512,30 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Anaerotignaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62206.fa</t>
+          <t>even_MAG-GUT58392.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1.748191026067239e-06</v>
+        <v>1.19433913272441e-06</v>
       </c>
       <c r="C222" t="n">
-        <v>2.055072441924987e-05</v>
+        <v>3.521459423645556e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>2.221793419183705e-14</v>
+        <v>9.438059285199852e-08</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9999777010845325</v>
+        <v>0.9999951898208508</v>
       </c>
       <c r="F222" t="n">
-        <v>0.9999777010845325</v>
+        <v>0.9999951898208508</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -7551,23 +7551,23 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62279.fa</t>
+          <t>even_MAG-GUT5880.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1.711270369633825e-05</v>
+        <v>1.180298815177468e-08</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0002760315104786273</v>
+        <v>5.540543168544068e-05</v>
       </c>
       <c r="D223" t="n">
-        <v>8.247760659170529e-06</v>
+        <v>3.883130080270854e-05</v>
       </c>
       <c r="E223" t="n">
-        <v>0.9996986080251659</v>
+        <v>0.9999057514645238</v>
       </c>
       <c r="F223" t="n">
-        <v>0.9996986080251659</v>
+        <v>0.9999057514645238</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -7583,23 +7583,23 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT646.fa</t>
+          <t>even_MAG-GUT59019.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1.427941028615269e-07</v>
+        <v>1.647788208205085e-08</v>
       </c>
       <c r="C224" t="n">
-        <v>0.001416812309206369</v>
+        <v>1.715515549815064e-05</v>
       </c>
       <c r="D224" t="n">
-        <v>1.908569677351927e-11</v>
+        <v>0.0004133051879142195</v>
       </c>
       <c r="E224" t="n">
-        <v>0.998583044877605</v>
+        <v>0.9995695231787056</v>
       </c>
       <c r="F224" t="n">
-        <v>0.998583044877605</v>
+        <v>0.9995695231787056</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -7615,23 +7615,23 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64686.fa</t>
+          <t>even_MAG-GUT59273.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>9.553299751971703e-05</v>
+        <v>0.0002387409212510567</v>
       </c>
       <c r="C225" t="n">
-        <v>0.001325830958910744</v>
+        <v>4.564626982664524e-07</v>
       </c>
       <c r="D225" t="n">
-        <v>1.978300556104743e-05</v>
+        <v>0.0002724521738827398</v>
       </c>
       <c r="E225" t="n">
-        <v>0.9985588530380085</v>
+        <v>0.999488350442168</v>
       </c>
       <c r="F225" t="n">
-        <v>0.9985588530380085</v>
+        <v>0.999488350442168</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -7647,23 +7647,23 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65359.fa</t>
+          <t>even_MAG-GUT59497.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4.456549071446729e-07</v>
+        <v>0.0006792662507635067</v>
       </c>
       <c r="C226" t="n">
-        <v>3.164478920752606e-05</v>
+        <v>1.153880155186911e-05</v>
       </c>
       <c r="D226" t="n">
-        <v>1.396403153866587e-08</v>
+        <v>0.0002874191398697892</v>
       </c>
       <c r="E226" t="n">
-        <v>0.9999678955918538</v>
+        <v>0.9990217758078148</v>
       </c>
       <c r="F226" t="n">
-        <v>0.9999678955918538</v>
+        <v>0.9990217758078148</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -7679,23 +7679,23 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65559.fa</t>
+          <t>even_MAG-GUT59827.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>7.502995031887907e-06</v>
+        <v>0.0005855012072039687</v>
       </c>
       <c r="C227" t="n">
-        <v>1.766594409709142e-05</v>
+        <v>1.187372022392721e-06</v>
       </c>
       <c r="D227" t="n">
-        <v>5.794613078302613e-07</v>
+        <v>0.0003141159797484621</v>
       </c>
       <c r="E227" t="n">
-        <v>0.9999742515995632</v>
+        <v>0.9990991954410252</v>
       </c>
       <c r="F227" t="n">
-        <v>0.9999742515995632</v>
+        <v>0.9990991954410252</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -7711,55 +7711,55 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66011.fa</t>
+          <t>even_MAG-GUT60274.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1.394091489418637e-08</v>
+        <v>0.9774317365565429</v>
       </c>
       <c r="C228" t="n">
-        <v>1.123274565361677e-06</v>
+        <v>0.0001961472787531092</v>
       </c>
       <c r="D228" t="n">
-        <v>1.007552499709689e-08</v>
+        <v>0.000212596660251968</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9999988527089948</v>
+        <v>0.02215951950445215</v>
       </c>
       <c r="F228" t="n">
-        <v>0.9999988527089948</v>
+        <v>0.9774317365565429</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66278.fa</t>
+          <t>even_MAG-GUT60850.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>6.201241864342782e-08</v>
+        <v>5.019966839241738e-05</v>
       </c>
       <c r="C229" t="n">
-        <v>1.840410650807467e-06</v>
+        <v>8.311038994494061e-06</v>
       </c>
       <c r="D229" t="n">
-        <v>6.58063500428642e-09</v>
+        <v>0.0004129429169282231</v>
       </c>
       <c r="E229" t="n">
-        <v>0.9999980909962956</v>
+        <v>0.9995285463756849</v>
       </c>
       <c r="F229" t="n">
-        <v>0.9999980909962956</v>
+        <v>0.9995285463756849</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -7775,23 +7775,23 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66288.fa</t>
+          <t>even_MAG-GUT61128.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1.784813701172114e-09</v>
+        <v>7.693603650945601e-07</v>
       </c>
       <c r="C230" t="n">
-        <v>9.499368825872303e-07</v>
+        <v>5.208126295609304e-07</v>
       </c>
       <c r="D230" t="n">
-        <v>1.806735880763336e-09</v>
+        <v>0.0001535577577452266</v>
       </c>
       <c r="E230" t="n">
-        <v>0.9999990464715679</v>
+        <v>0.9998451520692602</v>
       </c>
       <c r="F230" t="n">
-        <v>0.9999990464715679</v>
+        <v>0.9998451520692602</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -7807,23 +7807,23 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66335.fa</t>
+          <t>even_MAG-GUT61164.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>3.014261206446723e-08</v>
+        <v>5.336598503931006e-07</v>
       </c>
       <c r="C231" t="n">
-        <v>9.074559419839639e-07</v>
+        <v>2.279784241656567e-07</v>
       </c>
       <c r="D231" t="n">
-        <v>9.669437357216891e-09</v>
+        <v>0.0004168990999184575</v>
       </c>
       <c r="E231" t="n">
-        <v>0.9999990527320085</v>
+        <v>0.999582339261807</v>
       </c>
       <c r="F231" t="n">
-        <v>0.9999990527320085</v>
+        <v>0.999582339261807</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -7839,23 +7839,23 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66382.fa</t>
+          <t>even_MAG-GUT61486.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1.399483449613571e-05</v>
+        <v>0.006155730668726875</v>
       </c>
       <c r="C232" t="n">
-        <v>0.0003211141440720964</v>
+        <v>9.281250223553689e-07</v>
       </c>
       <c r="D232" t="n">
-        <v>4.319826326144737e-09</v>
+        <v>0.0001620742155803194</v>
       </c>
       <c r="E232" t="n">
-        <v>0.9996648867016054</v>
+        <v>0.9936812669906704</v>
       </c>
       <c r="F232" t="n">
-        <v>0.9996648867016054</v>
+        <v>0.9936812669906704</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -7871,55 +7871,55 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66901.fa</t>
+          <t>even_MAG-GUT62028.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.0005215351621487811</v>
+        <v>0.9971681678854518</v>
       </c>
       <c r="C233" t="n">
-        <v>0.003310832964573845</v>
+        <v>0.0001010037900843874</v>
       </c>
       <c r="D233" t="n">
-        <v>4.154656705928995e-05</v>
+        <v>0.0005335874890287591</v>
       </c>
       <c r="E233" t="n">
-        <v>0.996126085306218</v>
+        <v>0.002197240835435065</v>
       </c>
       <c r="F233" t="n">
-        <v>0.996126085306218</v>
+        <v>0.9971681678854518</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68269.fa</t>
+          <t>even_MAG-GUT62206.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>8.229676535977348e-07</v>
+        <v>2.197396739244259e-07</v>
       </c>
       <c r="C234" t="n">
-        <v>8.411538521030584e-07</v>
+        <v>3.872326047999493e-06</v>
       </c>
       <c r="D234" t="n">
-        <v>7.533085805387987e-10</v>
+        <v>7.369033304390402e-08</v>
       </c>
       <c r="E234" t="n">
-        <v>0.9999983351251858</v>
+        <v>0.9999958342439451</v>
       </c>
       <c r="F234" t="n">
-        <v>0.9999983351251858</v>
+        <v>0.9999958342439451</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -7935,23 +7935,23 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68301.fa</t>
+          <t>even_MAG-GUT62279.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.000524828323062911</v>
+        <v>0.0002031842216095491</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0005185281626123635</v>
+        <v>2.965027054709763e-05</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0005184274138143667</v>
+        <v>0.000224879715694884</v>
       </c>
       <c r="E235" t="n">
-        <v>0.9984382161005103</v>
+        <v>0.9995422857921484</v>
       </c>
       <c r="F235" t="n">
-        <v>0.9984382161005103</v>
+        <v>0.9995422857921484</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -7967,23 +7967,23 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69179.fa</t>
+          <t>even_MAG-GUT646.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1.367249189264012e-05</v>
+        <v>4.50585273117913e-08</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0003467073064701625</v>
+        <v>0.01038380187969686</v>
       </c>
       <c r="D236" t="n">
-        <v>1.066642304083877e-05</v>
+        <v>7.492186853456826e-08</v>
       </c>
       <c r="E236" t="n">
-        <v>0.9996289537785964</v>
+        <v>0.9896160781399074</v>
       </c>
       <c r="F236" t="n">
-        <v>0.9996289537785964</v>
+        <v>0.9896160781399074</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -7999,23 +7999,23 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69364.fa</t>
+          <t>even_MAG-GUT64686.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>8.803169277032458e-05</v>
+        <v>0.0002828329678645319</v>
       </c>
       <c r="C237" t="n">
-        <v>0.002451763950642926</v>
+        <v>0.0001613573592363028</v>
       </c>
       <c r="D237" t="n">
-        <v>1.768660379768814e-05</v>
+        <v>0.00118259545905815</v>
       </c>
       <c r="E237" t="n">
-        <v>0.997442517752789</v>
+        <v>0.9983732142138411</v>
       </c>
       <c r="F237" t="n">
-        <v>0.997442517752789</v>
+        <v>0.9983732142138411</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -8031,23 +8031,23 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69432.fa</t>
+          <t>even_MAG-GUT65359.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>5.167392634756283e-09</v>
+        <v>6.621502117850643e-06</v>
       </c>
       <c r="C238" t="n">
-        <v>1.707046911553999e-06</v>
+        <v>1.93616094254428e-06</v>
       </c>
       <c r="D238" t="n">
-        <v>9.637876461542431e-10</v>
+        <v>6.553967043965255e-05</v>
       </c>
       <c r="E238" t="n">
-        <v>0.9999982868219082</v>
+        <v>0.9999259026664999</v>
       </c>
       <c r="F238" t="n">
-        <v>0.9999982868219082</v>
+        <v>0.9999259026664999</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -8063,23 +8063,23 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69468.fa</t>
+          <t>even_MAG-GUT65559.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>9.496115287159078e-06</v>
+        <v>9.188158899484878e-05</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0006882340061081991</v>
+        <v>1.809910884556229e-06</v>
       </c>
       <c r="D239" t="n">
-        <v>1.802937849383006e-05</v>
+        <v>0.0001804220416406022</v>
       </c>
       <c r="E239" t="n">
-        <v>0.9992842405001108</v>
+        <v>0.99972588645848</v>
       </c>
       <c r="F239" t="n">
-        <v>0.9992842405001108</v>
+        <v>0.99972588645848</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8095,23 +8095,23 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69905.fa</t>
+          <t>even_MAG-GUT66011.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>5.140035779830255e-07</v>
+        <v>0.0005783201353708428</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0001199296449759209</v>
+        <v>1.517757068962676e-06</v>
       </c>
       <c r="D240" t="n">
-        <v>4.28631616369982e-10</v>
+        <v>0.0008930065443924094</v>
       </c>
       <c r="E240" t="n">
-        <v>0.9998795559228146</v>
+        <v>0.9985271555631678</v>
       </c>
       <c r="F240" t="n">
-        <v>0.9998795559228146</v>
+        <v>0.9985271555631678</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -8127,23 +8127,23 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71686.fa</t>
+          <t>even_MAG-GUT66278.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4.869161417491865e-07</v>
+        <v>0.0006087642862216079</v>
       </c>
       <c r="C241" t="n">
-        <v>1.326594442836948e-05</v>
+        <v>1.057072528880301e-06</v>
       </c>
       <c r="D241" t="n">
-        <v>8.369006659854483e-07</v>
+        <v>0.0006338972167939865</v>
       </c>
       <c r="E241" t="n">
-        <v>0.999985410238764</v>
+        <v>0.9987562814244555</v>
       </c>
       <c r="F241" t="n">
-        <v>0.999985410238764</v>
+        <v>0.9987562814244555</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8159,23 +8159,23 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71840.fa</t>
+          <t>even_MAG-GUT66288.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>6.346608440128008e-08</v>
+        <v>0.0001396779913833072</v>
       </c>
       <c r="C242" t="n">
-        <v>1.844139708008482e-06</v>
+        <v>1.724670064556352e-06</v>
       </c>
       <c r="D242" t="n">
-        <v>6.970697229879954e-10</v>
+        <v>0.0002592512772655117</v>
       </c>
       <c r="E242" t="n">
-        <v>0.9999980916971379</v>
+        <v>0.9995993460612866</v>
       </c>
       <c r="F242" t="n">
-        <v>0.9999980916971379</v>
+        <v>0.9995993460612866</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -8191,23 +8191,23 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72020.fa</t>
+          <t>even_MAG-GUT66335.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>7.818157980781532e-09</v>
+        <v>0.0003041130742716764</v>
       </c>
       <c r="C243" t="n">
-        <v>9.716568161746654e-06</v>
+        <v>7.939259453399813e-07</v>
       </c>
       <c r="D243" t="n">
-        <v>1.994821212930786e-06</v>
+        <v>0.0004622979537576248</v>
       </c>
       <c r="E243" t="n">
-        <v>0.9999882807924674</v>
+        <v>0.9992327950460252</v>
       </c>
       <c r="F243" t="n">
-        <v>0.9999882807924674</v>
+        <v>0.9992327950460252</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -8223,55 +8223,55 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72315.fa</t>
+          <t>even_MAG-GUT66378.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.8790022718814323</v>
+        <v>4.80167696756125e-07</v>
       </c>
       <c r="C244" t="n">
-        <v>4.132847787076976e-05</v>
+        <v>0.0001426412639007314</v>
       </c>
       <c r="D244" t="n">
-        <v>4.092889786155182e-05</v>
+        <v>3.836597275328875e-06</v>
       </c>
       <c r="E244" t="n">
-        <v>0.1209154707428353</v>
+        <v>0.9998530419711271</v>
       </c>
       <c r="F244" t="n">
-        <v>0.8790022718814323</v>
+        <v>0.9998530419711271</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>f__Anaerotignaceae</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73407.fa</t>
+          <t>even_MAG-GUT66382.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>6.603598178327963e-08</v>
+        <v>5.869282662296074e-05</v>
       </c>
       <c r="C245" t="n">
-        <v>6.770323938759715e-06</v>
+        <v>0.0002503406518885859</v>
       </c>
       <c r="D245" t="n">
-        <v>2.590048229113833e-06</v>
+        <v>6.221352504424614e-05</v>
       </c>
       <c r="E245" t="n">
-        <v>0.9999905735918504</v>
+        <v>0.9996287529964442</v>
       </c>
       <c r="F245" t="n">
-        <v>0.9999905735918504</v>
+        <v>0.9996287529964442</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8287,23 +8287,23 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73422.fa</t>
+          <t>even_MAG-GUT66901.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>6.902913221926343e-06</v>
+        <v>0.001722320238640972</v>
       </c>
       <c r="C246" t="n">
-        <v>5.866017374171428e-05</v>
+        <v>0.0003601475256370115</v>
       </c>
       <c r="D246" t="n">
-        <v>4.835831260671701e-11</v>
+        <v>0.003171634741848001</v>
       </c>
       <c r="E246" t="n">
-        <v>0.999934436864678</v>
+        <v>0.994745897493874</v>
       </c>
       <c r="F246" t="n">
-        <v>0.999934436864678</v>
+        <v>0.994745897493874</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -8319,23 +8319,23 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73962.fa</t>
+          <t>even_MAG-GUT68269.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3.245297382027392e-05</v>
+        <v>0.002060280061417533</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0002158261578602377</v>
+        <v>9.463538671838462e-07</v>
       </c>
       <c r="D247" t="n">
-        <v>2.340661565500343e-05</v>
+        <v>0.0002057561385499232</v>
       </c>
       <c r="E247" t="n">
-        <v>0.9997283142526644</v>
+        <v>0.9977330174461654</v>
       </c>
       <c r="F247" t="n">
-        <v>0.9997283142526644</v>
+        <v>0.9977330174461654</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -8351,23 +8351,23 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73968.fa</t>
+          <t>even_MAG-GUT68301.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3.534327175384156e-10</v>
+        <v>0.001810486589354845</v>
       </c>
       <c r="C248" t="n">
-        <v>4.679772531005656e-08</v>
+        <v>1.140350432644039e-06</v>
       </c>
       <c r="D248" t="n">
-        <v>1.884100443185298e-09</v>
+        <v>0.000233104658625336</v>
       </c>
       <c r="E248" t="n">
-        <v>0.9999999509647416</v>
+        <v>0.9979552684015872</v>
       </c>
       <c r="F248" t="n">
-        <v>0.9999999509647416</v>
+        <v>0.9979552684015872</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -8383,23 +8383,23 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74028.fa</t>
+          <t>even_MAG-GUT69179.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2.110789342327391e-05</v>
+        <v>3.093949346353156e-05</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0004359059964225391</v>
+        <v>2.616006706154786e-05</v>
       </c>
       <c r="D249" t="n">
-        <v>2.532437905677622e-05</v>
+        <v>0.0008399068982000644</v>
       </c>
       <c r="E249" t="n">
-        <v>0.9995176617310975</v>
+        <v>0.9991029935412749</v>
       </c>
       <c r="F249" t="n">
-        <v>0.9995176617310975</v>
+        <v>0.9991029935412749</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -8415,23 +8415,23 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74541.fa</t>
+          <t>even_MAG-GUT69364.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.0006521233205888491</v>
+        <v>0.0002791547336211126</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0001974388295358738</v>
+        <v>0.0003294006829402849</v>
       </c>
       <c r="D250" t="n">
-        <v>6.901149981165245e-05</v>
+        <v>0.001339453388235352</v>
       </c>
       <c r="E250" t="n">
-        <v>0.9990814263500637</v>
+        <v>0.9980519911952032</v>
       </c>
       <c r="F250" t="n">
-        <v>0.9990814263500637</v>
+        <v>0.9980519911952032</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -8447,23 +8447,23 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74669.fa</t>
+          <t>even_MAG-GUT69432.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1.600067517342193e-05</v>
+        <v>7.258913155850452e-05</v>
       </c>
       <c r="C251" t="n">
-        <v>2.089014103742798e-06</v>
+        <v>1.897958240519968e-06</v>
       </c>
       <c r="D251" t="n">
-        <v>5.049230782713419e-06</v>
+        <v>0.0002672638739139926</v>
       </c>
       <c r="E251" t="n">
-        <v>0.9999768610799401</v>
+        <v>0.999658249036287</v>
       </c>
       <c r="F251" t="n">
-        <v>0.9999768610799401</v>
+        <v>0.999658249036287</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -8479,23 +8479,23 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74962.fa</t>
+          <t>even_MAG-GUT69468.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1.074902541269837e-08</v>
+        <v>0.0003090124476950292</v>
       </c>
       <c r="C252" t="n">
-        <v>6.126706959957562e-06</v>
+        <v>6.68175172870278e-05</v>
       </c>
       <c r="D252" t="n">
-        <v>1.54580269697026e-06</v>
+        <v>0.0005263667003336782</v>
       </c>
       <c r="E252" t="n">
-        <v>0.9999923167413176</v>
+        <v>0.9990978033346842</v>
       </c>
       <c r="F252" t="n">
-        <v>0.9999923167413176</v>
+        <v>0.9990978033346842</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -8511,23 +8511,23 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74997.fa</t>
+          <t>even_MAG-GUT69905.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>9.416895855509235e-09</v>
+        <v>3.110424374138525e-07</v>
       </c>
       <c r="C253" t="n">
-        <v>3.279679200563371e-07</v>
+        <v>1.5605919886262e-05</v>
       </c>
       <c r="D253" t="n">
-        <v>1.022947298671203e-09</v>
+        <v>2.318014839587074e-05</v>
       </c>
       <c r="E253" t="n">
-        <v>0.9999996615922367</v>
+        <v>0.9999609028892804</v>
       </c>
       <c r="F253" t="n">
-        <v>0.9999996615922367</v>
+        <v>0.9999609028892804</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -8543,23 +8543,23 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76584.fa</t>
+          <t>even_MAG-GUT71686.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>4.691079844825819e-08</v>
+        <v>1.402620445618504e-06</v>
       </c>
       <c r="C254" t="n">
-        <v>1.087412163225506e-05</v>
+        <v>5.352685439960669e-07</v>
       </c>
       <c r="D254" t="n">
-        <v>6.420296183182003e-06</v>
+        <v>0.0004529642429851175</v>
       </c>
       <c r="E254" t="n">
-        <v>0.999982658671386</v>
+        <v>0.9995450978680253</v>
       </c>
       <c r="F254" t="n">
-        <v>0.999982658671386</v>
+        <v>0.9995450978680253</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -8575,23 +8575,23 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77408.fa</t>
+          <t>even_MAG-GUT71840.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>5.63582340706351e-08</v>
+        <v>0.001127600052167763</v>
       </c>
       <c r="C255" t="n">
-        <v>1.703824136547175e-06</v>
+        <v>1.487499092951566e-06</v>
       </c>
       <c r="D255" t="n">
-        <v>7.419709235658015e-09</v>
+        <v>0.0002661213919197014</v>
       </c>
       <c r="E255" t="n">
-        <v>0.9999982323979201</v>
+        <v>0.9986047910568197</v>
       </c>
       <c r="F255" t="n">
-        <v>0.9999982323979201</v>
+        <v>0.9986047910568197</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -8607,23 +8607,23 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78278.fa</t>
+          <t>even_MAG-GUT72020.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1.338300070904696e-07</v>
+        <v>1.657261977518661e-07</v>
       </c>
       <c r="C256" t="n">
-        <v>1.073448816059779e-06</v>
+        <v>4.572660469784421e-07</v>
       </c>
       <c r="D256" t="n">
-        <v>3.356374697545628e-10</v>
+        <v>0.0003251673604161549</v>
       </c>
       <c r="E256" t="n">
-        <v>0.9999987923855395</v>
+        <v>0.9996742096473391</v>
       </c>
       <c r="F256" t="n">
-        <v>0.9999987923855395</v>
+        <v>0.9996742096473391</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -8639,55 +8639,55 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78358.fa</t>
+          <t>even_MAG-GUT72315.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2.644677216130049e-07</v>
+        <v>0.8824480997362441</v>
       </c>
       <c r="C257" t="n">
-        <v>2.618729700657387e-06</v>
+        <v>3.87371589742711e-06</v>
       </c>
       <c r="D257" t="n">
-        <v>1.018298131033714e-09</v>
+        <v>0.0001871382191774468</v>
       </c>
       <c r="E257" t="n">
-        <v>0.9999971157842795</v>
+        <v>0.117360888328681</v>
       </c>
       <c r="F257" t="n">
-        <v>0.9999971157842795</v>
+        <v>0.8824480997362441</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Anaerotignaceae</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78413.fa</t>
+          <t>even_MAG-GUT73407.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>3.412714768467012e-07</v>
+        <v>1.369592194916146e-06</v>
       </c>
       <c r="C258" t="n">
-        <v>2.376330182731329e-06</v>
+        <v>3.507348277665322e-07</v>
       </c>
       <c r="D258" t="n">
-        <v>8.204367216860055e-10</v>
+        <v>0.000186469144867311</v>
       </c>
       <c r="E258" t="n">
-        <v>0.9999972815779037</v>
+        <v>0.9998118105281101</v>
       </c>
       <c r="F258" t="n">
-        <v>0.9999972815779037</v>
+        <v>0.9998118105281101</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -8703,23 +8703,23 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78571.fa</t>
+          <t>even_MAG-GUT73422.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>4.245173060199973e-05</v>
+        <v>0.0003381448094668456</v>
       </c>
       <c r="C259" t="n">
-        <v>0.001388230894855265</v>
+        <v>2.037323130037374e-05</v>
       </c>
       <c r="D259" t="n">
-        <v>1.109737122178314e-05</v>
+        <v>1.274233369005638e-06</v>
       </c>
       <c r="E259" t="n">
-        <v>0.998558220003321</v>
+        <v>0.9996402077258637</v>
       </c>
       <c r="F259" t="n">
-        <v>0.998558220003321</v>
+        <v>0.9996402077258637</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -8735,23 +8735,23 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78940.fa</t>
+          <t>even_MAG-GUT73491.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1.412154535842651e-06</v>
+        <v>8.915566122846085e-07</v>
       </c>
       <c r="C260" t="n">
-        <v>1.501543286436569e-05</v>
+        <v>0.000168496366076566</v>
       </c>
       <c r="D260" t="n">
-        <v>3.927939161299674e-08</v>
+        <v>7.725829434080815e-06</v>
       </c>
       <c r="E260" t="n">
-        <v>0.9999835331332082</v>
+        <v>0.9998228862478771</v>
       </c>
       <c r="F260" t="n">
-        <v>0.9999835331332082</v>
+        <v>0.9998228862478771</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -8767,23 +8767,23 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79005.fa</t>
+          <t>even_MAG-GUT73962.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2.372918384401336e-06</v>
+        <v>0.0001625495701036515</v>
       </c>
       <c r="C261" t="n">
-        <v>1.634599484651336e-05</v>
+        <v>4.876092274925429e-05</v>
       </c>
       <c r="D261" t="n">
-        <v>5.201255776996976e-08</v>
+        <v>0.0004370042396972275</v>
       </c>
       <c r="E261" t="n">
-        <v>0.9999812290742113</v>
+        <v>0.9993516852674499</v>
       </c>
       <c r="F261" t="n">
-        <v>0.9999812290742113</v>
+        <v>0.9993516852674499</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -8799,23 +8799,23 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79053.fa</t>
+          <t>even_MAG-GUT73968.fa</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2.270257061898448e-06</v>
+        <v>0.0002172409649371625</v>
       </c>
       <c r="C262" t="n">
-        <v>3.722127019099465e-05</v>
+        <v>1.543140164299637e-07</v>
       </c>
       <c r="D262" t="n">
-        <v>1.436352308300323e-08</v>
+        <v>0.0001481879447185236</v>
       </c>
       <c r="E262" t="n">
-        <v>0.9999604941092239</v>
+        <v>0.9996344167763279</v>
       </c>
       <c r="F262" t="n">
-        <v>0.9999604941092239</v>
+        <v>0.9996344167763279</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -8831,23 +8831,23 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79662.fa</t>
+          <t>even_MAG-GUT74028.fa</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.002246642553068921</v>
+        <v>2.067414072791894e-05</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0001977483478262656</v>
+        <v>3.837667149833434e-05</v>
       </c>
       <c r="D263" t="n">
-        <v>6.839049899398632e-07</v>
+        <v>0.0008851240252551113</v>
       </c>
       <c r="E263" t="n">
-        <v>0.9975549251941148</v>
+        <v>0.9990558251625187</v>
       </c>
       <c r="F263" t="n">
-        <v>0.9975549251941148</v>
+        <v>0.9990558251625187</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -8863,23 +8863,23 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79996.fa</t>
+          <t>even_MAG-GUT74541.fa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1.731596790516272e-10</v>
+        <v>0.0005988212891971589</v>
       </c>
       <c r="C264" t="n">
-        <v>9.221660413147596e-10</v>
+        <v>9.77143486935303e-06</v>
       </c>
       <c r="D264" t="n">
-        <v>2.734056814207913e-13</v>
+        <v>0.001137041953444087</v>
       </c>
       <c r="E264" t="n">
-        <v>0.9999999989044009</v>
+        <v>0.9982543653224895</v>
       </c>
       <c r="F264" t="n">
-        <v>0.9999999989044009</v>
+        <v>0.9982543653224895</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -8895,23 +8895,23 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80318.fa</t>
+          <t>even_MAG-GUT74669.fa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3.153429015137536e-10</v>
+        <v>0.0006231171666701566</v>
       </c>
       <c r="C265" t="n">
-        <v>1.006582487846953e-06</v>
+        <v>2.33016092709854e-06</v>
       </c>
       <c r="D265" t="n">
-        <v>2.044954786745199e-09</v>
+        <v>0.0003343588532695485</v>
       </c>
       <c r="E265" t="n">
-        <v>0.9999989910572145</v>
+        <v>0.9990401938191331</v>
       </c>
       <c r="F265" t="n">
-        <v>0.9999989910572145</v>
+        <v>0.9990401938191331</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -8927,23 +8927,23 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80437.fa</t>
+          <t>even_MAG-GUT74962.fa</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.0009327443487074997</v>
+        <v>1.32052283702596e-07</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0008766466802663277</v>
+        <v>3.639516893569808e-07</v>
       </c>
       <c r="D266" t="n">
-        <v>2.73745472757887e-06</v>
+        <v>0.0002554380315650307</v>
       </c>
       <c r="E266" t="n">
-        <v>0.9981878715162986</v>
+        <v>0.999744065964462</v>
       </c>
       <c r="F266" t="n">
-        <v>0.9981878715162986</v>
+        <v>0.999744065964462</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -8959,23 +8959,23 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80705.fa</t>
+          <t>even_MAG-GUT74997.fa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>3.858658727403199e-07</v>
+        <v>0.0007577667069225794</v>
       </c>
       <c r="C267" t="n">
-        <v>0.003012895079042609</v>
+        <v>5.541912493354635e-07</v>
       </c>
       <c r="D267" t="n">
-        <v>2.617521630413329e-10</v>
+        <v>0.0001884871355092252</v>
       </c>
       <c r="E267" t="n">
-        <v>0.9969867187933324</v>
+        <v>0.9990531919663189</v>
       </c>
       <c r="F267" t="n">
-        <v>0.9969867187933324</v>
+        <v>0.9990531919663189</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -8991,23 +8991,23 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80792.fa</t>
+          <t>even_MAG-GUT76584.fa</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1.441744817442885e-09</v>
+        <v>8.720224243179106e-07</v>
       </c>
       <c r="C268" t="n">
-        <v>1.112914213708574e-06</v>
+        <v>5.962483900980138e-07</v>
       </c>
       <c r="D268" t="n">
-        <v>1.665180806951715e-09</v>
+        <v>0.0005477338020612557</v>
       </c>
       <c r="E268" t="n">
-        <v>0.9999988839788607</v>
+        <v>0.9994507979271243</v>
       </c>
       <c r="F268" t="n">
-        <v>0.9999988839788607</v>
+        <v>0.9994507979271243</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -9023,23 +9023,23 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81000.fa</t>
+          <t>even_MAG-GUT77408.fa</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>5.703079735287281e-08</v>
+        <v>0.000573177491434989</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0006325208096892199</v>
+        <v>9.010365516918368e-07</v>
       </c>
       <c r="D269" t="n">
-        <v>5.379920548930064e-11</v>
+        <v>0.0003080871677494693</v>
       </c>
       <c r="E269" t="n">
-        <v>0.9993674221057142</v>
+        <v>0.9991178343042638</v>
       </c>
       <c r="F269" t="n">
-        <v>0.9993674221057142</v>
+        <v>0.9991178343042638</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -9055,23 +9055,23 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81065.fa</t>
+          <t>even_MAG-GUT78278.fa</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2.16047505970427e-07</v>
+        <v>6.658704770253397e-05</v>
       </c>
       <c r="C270" t="n">
-        <v>0.002405214789051499</v>
+        <v>2.550989986811289e-07</v>
       </c>
       <c r="D270" t="n">
-        <v>4.780525184882209e-11</v>
+        <v>2.232496236019122e-05</v>
       </c>
       <c r="E270" t="n">
-        <v>0.9975945691156373</v>
+        <v>0.9999108328909386</v>
       </c>
       <c r="F270" t="n">
-        <v>0.9975945691156373</v>
+        <v>0.9999108328909386</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -9087,23 +9087,23 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81692.fa</t>
+          <t>even_MAG-GUT78358.fa</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2.020610442570848e-06</v>
+        <v>0.000112924494029967</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0005182335060037031</v>
+        <v>6.079936231866889e-07</v>
       </c>
       <c r="D271" t="n">
-        <v>1.301159665918783e-08</v>
+        <v>4.581576650852035e-05</v>
       </c>
       <c r="E271" t="n">
-        <v>0.999479732871957</v>
+        <v>0.9998406517458382</v>
       </c>
       <c r="F271" t="n">
-        <v>0.999479732871957</v>
+        <v>0.9998406517458382</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -9119,23 +9119,23 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81918.fa</t>
+          <t>even_MAG-GUT78413.fa</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.0003562456821488308</v>
+        <v>7.743117226131026e-05</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0002970152200334311</v>
+        <v>5.452825502681315e-07</v>
       </c>
       <c r="D272" t="n">
-        <v>3.99052212326218e-06</v>
+        <v>2.762930938719019e-05</v>
       </c>
       <c r="E272" t="n">
-        <v>0.9993427485756945</v>
+        <v>0.9998943942358013</v>
       </c>
       <c r="F272" t="n">
-        <v>0.9993427485756945</v>
+        <v>0.9998943942358013</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -9151,23 +9151,23 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82016.fa</t>
+          <t>even_MAG-GUT78571.fa</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.0009684429284806483</v>
+        <v>5.033618254760489e-05</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0001341905520570256</v>
+        <v>0.0001342224392142689</v>
       </c>
       <c r="D273" t="n">
-        <v>2.803022912404954e-06</v>
+        <v>0.0005462265865957659</v>
       </c>
       <c r="E273" t="n">
-        <v>0.9988945634965499</v>
+        <v>0.9992692147916423</v>
       </c>
       <c r="F273" t="n">
-        <v>0.9988945634965499</v>
+        <v>0.9992692147916423</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -9183,23 +9183,23 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82165.fa</t>
+          <t>even_MAG-GUT78940.fa</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>3.729929713522106e-08</v>
+        <v>3.925256450573032e-05</v>
       </c>
       <c r="C274" t="n">
-        <v>9.158779973114483e-07</v>
+        <v>1.196059002504078e-06</v>
       </c>
       <c r="D274" t="n">
-        <v>2.508609989420003e-09</v>
+        <v>7.070077779444566e-05</v>
       </c>
       <c r="E274" t="n">
-        <v>0.9999990443140956</v>
+        <v>0.9998888505986974</v>
       </c>
       <c r="F274" t="n">
-        <v>0.9999990443140956</v>
+        <v>0.9998888505986974</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -9215,23 +9215,23 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT822.fa</t>
+          <t>even_MAG-GUT79005.fa</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.001078086774167566</v>
+        <v>7.764896579982811e-05</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0001653234987049007</v>
+        <v>1.002518340994395e-06</v>
       </c>
       <c r="D275" t="n">
-        <v>2.576896952322075e-06</v>
+        <v>8.562014947435512e-05</v>
       </c>
       <c r="E275" t="n">
-        <v>0.9987540128301753</v>
+        <v>0.9998357283663848</v>
       </c>
       <c r="F275" t="n">
-        <v>0.9987540128301753</v>
+        <v>0.9998357283663848</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -9247,23 +9247,23 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82836.fa</t>
+          <t>even_MAG-GUT79053.fa</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>3.719691679145824e-07</v>
+        <v>3.921070977992837e-05</v>
       </c>
       <c r="C276" t="n">
-        <v>1.270657965755214e-05</v>
+        <v>1.200086463929881e-06</v>
       </c>
       <c r="D276" t="n">
-        <v>2.32853920582121e-06</v>
+        <v>5.985727777423223e-05</v>
       </c>
       <c r="E276" t="n">
-        <v>0.9999845929119688</v>
+        <v>0.9998997319259819</v>
       </c>
       <c r="F276" t="n">
-        <v>0.9999845929119688</v>
+        <v>0.9998997319259819</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -9279,23 +9279,23 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83203.fa</t>
+          <t>even_MAG-GUT79662.fa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>4.58144709518431e-08</v>
+        <v>0.002691010312275046</v>
       </c>
       <c r="C277" t="n">
-        <v>6.47357260910244e-06</v>
+        <v>1.097543475304241e-05</v>
       </c>
       <c r="D277" t="n">
-        <v>1.28936620960088e-06</v>
+        <v>5.613845417654979e-05</v>
       </c>
       <c r="E277" t="n">
-        <v>0.9999921912467103</v>
+        <v>0.9972418757987953</v>
       </c>
       <c r="F277" t="n">
-        <v>0.9999921912467103</v>
+        <v>0.9972418757987953</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -9311,23 +9311,23 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83214.fa</t>
+          <t>even_MAG-GUT79996.fa</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1.667906808778282e-08</v>
+        <v>5.90254917487564e-11</v>
       </c>
       <c r="C278" t="n">
-        <v>4.941890829049639e-06</v>
+        <v>1.185869312832819e-08</v>
       </c>
       <c r="D278" t="n">
-        <v>2.501811888056624e-06</v>
+        <v>1.926407135398278e-07</v>
       </c>
       <c r="E278" t="n">
-        <v>0.9999925396182149</v>
+        <v>0.9999997954415678</v>
       </c>
       <c r="F278" t="n">
-        <v>0.9999925396182149</v>
+        <v>0.9999997954415678</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -9343,23 +9343,23 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83835.fa</t>
+          <t>even_MAG-GUT80318.fa</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>4.290326959839688e-08</v>
+        <v>7.148555427873489e-05</v>
       </c>
       <c r="C279" t="n">
-        <v>1.238306114981649e-05</v>
+        <v>1.072529656882963e-06</v>
       </c>
       <c r="D279" t="n">
-        <v>3.546508082839849e-06</v>
+        <v>0.0002873596680636498</v>
       </c>
       <c r="E279" t="n">
-        <v>0.9999840275274977</v>
+        <v>0.9996400822480007</v>
       </c>
       <c r="F279" t="n">
-        <v>0.9999840275274977</v>
+        <v>0.9996400822480007</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -9375,23 +9375,23 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83864.fa</t>
+          <t>even_MAG-GUT80437.fa</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3.662794599259956e-08</v>
+        <v>0.01737744370840764</v>
       </c>
       <c r="C280" t="n">
-        <v>4.800021866339657e-06</v>
+        <v>0.0002586495856334339</v>
       </c>
       <c r="D280" t="n">
-        <v>3.825959144625406e-07</v>
+        <v>0.001928066769448247</v>
       </c>
       <c r="E280" t="n">
-        <v>0.9999947807542733</v>
+        <v>0.9804358399365106</v>
       </c>
       <c r="F280" t="n">
-        <v>0.9999947807542733</v>
+        <v>0.9804358399365106</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -9407,23 +9407,23 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8388.fa</t>
+          <t>even_MAG-GUT80705.fa</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2.528999825765408e-06</v>
+        <v>8.399871348260168e-06</v>
       </c>
       <c r="C281" t="n">
-        <v>1.297358682604319e-05</v>
+        <v>0.0178296941424169</v>
       </c>
       <c r="D281" t="n">
-        <v>2.703513262926458e-05</v>
+        <v>1.228197758844475e-06</v>
       </c>
       <c r="E281" t="n">
-        <v>0.9999574622807189</v>
+        <v>0.982160677788476</v>
       </c>
       <c r="F281" t="n">
-        <v>0.9999574622807189</v>
+        <v>0.982160677788476</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -9439,23 +9439,23 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84116.fa</t>
+          <t>even_MAG-GUT80792.fa</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.0005722143492182578</v>
+        <v>8.035316226180933e-05</v>
       </c>
       <c r="C282" t="n">
-        <v>0.000587885336920041</v>
+        <v>1.354668569692664e-06</v>
       </c>
       <c r="D282" t="n">
-        <v>0.0005708729122530643</v>
+        <v>0.0003845840006222841</v>
       </c>
       <c r="E282" t="n">
-        <v>0.9982690274016085</v>
+        <v>0.9995337081685463</v>
       </c>
       <c r="F282" t="n">
-        <v>0.9982690274016085</v>
+        <v>0.9995337081685463</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -9471,23 +9471,23 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84132.fa</t>
+          <t>even_MAG-GUT81000.fa</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2.903467673252864e-06</v>
+        <v>1.753931027239723e-07</v>
       </c>
       <c r="C283" t="n">
-        <v>7.635425826938778e-06</v>
+        <v>0.004810402418681334</v>
       </c>
       <c r="D283" t="n">
-        <v>1.072287979354852e-11</v>
+        <v>6.666876107875225e-07</v>
       </c>
       <c r="E283" t="n">
-        <v>0.9999894610957769</v>
+        <v>0.9951887555006053</v>
       </c>
       <c r="F283" t="n">
-        <v>0.9999894610957769</v>
+        <v>0.9951887555006053</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -9503,23 +9503,23 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84184.fa</t>
+          <t>even_MAG-GUT81065.fa</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>6.762014030892264e-07</v>
+        <v>2.875968990453733e-07</v>
       </c>
       <c r="C284" t="n">
-        <v>2.634422963848778e-05</v>
+        <v>0.01161437802879036</v>
       </c>
       <c r="D284" t="n">
-        <v>7.619612987450494e-06</v>
+        <v>1.460677066032662e-07</v>
       </c>
       <c r="E284" t="n">
-        <v>0.999965359955971</v>
+        <v>0.988385188306604</v>
       </c>
       <c r="F284" t="n">
-        <v>0.999965359955971</v>
+        <v>0.988385188306604</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -9535,23 +9535,23 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84500.fa</t>
+          <t>even_MAG-GUT81692.fa</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>8.321565736732927e-05</v>
+        <v>4.646939960328149e-06</v>
       </c>
       <c r="C285" t="n">
-        <v>0.0005762663265921092</v>
+        <v>0.005644921310716837</v>
       </c>
       <c r="D285" t="n">
-        <v>1.083750787581399e-05</v>
+        <v>1.748863409950534e-05</v>
       </c>
       <c r="E285" t="n">
-        <v>0.9993296805081648</v>
+        <v>0.9943329431152232</v>
       </c>
       <c r="F285" t="n">
-        <v>0.9993296805081648</v>
+        <v>0.9943329431152232</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -9567,23 +9567,23 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84562.fa</t>
+          <t>even_MAG-GUT81918.fa</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.0001751521886993351</v>
+        <v>0.0007234801030462807</v>
       </c>
       <c r="C286" t="n">
-        <v>6.238523234622476e-05</v>
+        <v>2.323660422391676e-05</v>
       </c>
       <c r="D286" t="n">
-        <v>2.580504611248798e-07</v>
+        <v>0.0002542604813667904</v>
       </c>
       <c r="E286" t="n">
-        <v>0.9997622045284934</v>
+        <v>0.9989990228113631</v>
       </c>
       <c r="F286" t="n">
-        <v>0.9997622045284934</v>
+        <v>0.9989990228113631</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -9599,23 +9599,23 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85312.fa</t>
+          <t>even_MAG-GUT82016.fa</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.001450794948915822</v>
+        <v>0.0006035330338557715</v>
       </c>
       <c r="C287" t="n">
-        <v>7.706833707743416e-05</v>
+        <v>1.79546745905492e-05</v>
       </c>
       <c r="D287" t="n">
-        <v>1.802361906172203e-06</v>
+        <v>0.0004078637933422978</v>
       </c>
       <c r="E287" t="n">
-        <v>0.9984703343521005</v>
+        <v>0.9989706484982114</v>
       </c>
       <c r="F287" t="n">
-        <v>0.9984703343521005</v>
+        <v>0.9989706484982114</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -9631,23 +9631,23 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85568.fa</t>
+          <t>even_MAG-GUT82165.fa</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3.371061456831576e-06</v>
+        <v>0.0006886184182851311</v>
       </c>
       <c r="C288" t="n">
-        <v>8.734558456246861e-06</v>
+        <v>9.058453547664294e-07</v>
       </c>
       <c r="D288" t="n">
-        <v>3.60307669655529e-10</v>
+        <v>0.0001716666820862375</v>
       </c>
       <c r="E288" t="n">
-        <v>0.9999878940197792</v>
+        <v>0.9991388090542738</v>
       </c>
       <c r="F288" t="n">
-        <v>0.9999878940197792</v>
+        <v>0.9991388090542738</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -9663,23 +9663,23 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86370.fa</t>
+          <t>even_MAG-GUT82836.fa</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.000181204592125858</v>
+        <v>2.649450494771037e-06</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0007667348327296086</v>
+        <v>5.75291823152051e-07</v>
       </c>
       <c r="D289" t="n">
-        <v>2.121122997805446e-06</v>
+        <v>0.0002241414923555656</v>
       </c>
       <c r="E289" t="n">
-        <v>0.9990499394521467</v>
+        <v>0.9997726337653265</v>
       </c>
       <c r="F289" t="n">
-        <v>0.9990499394521467</v>
+        <v>0.9997726337653265</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -9695,23 +9695,23 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86569.fa</t>
+          <t>even_MAG-GUT83203.fa</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.0002338943100452138</v>
+        <v>6.076377476011601e-07</v>
       </c>
       <c r="C290" t="n">
-        <v>2.053806963484832e-05</v>
+        <v>4.080358078765591e-07</v>
       </c>
       <c r="D290" t="n">
-        <v>3.351820108389986e-05</v>
+        <v>0.0002396974038688011</v>
       </c>
       <c r="E290" t="n">
-        <v>0.9997120494192361</v>
+        <v>0.9997592869225757</v>
       </c>
       <c r="F290" t="n">
-        <v>0.9997120494192361</v>
+        <v>0.9997592869225757</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -9727,23 +9727,23 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87851.fa</t>
+          <t>even_MAG-GUT83214.fa</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.4624662024532025</v>
+        <v>4.289039350256752e-07</v>
       </c>
       <c r="C291" t="n">
-        <v>0.004755164280805271</v>
+        <v>4.233361335759574e-07</v>
       </c>
       <c r="D291" t="n">
-        <v>2.265107044316853e-05</v>
+        <v>0.0004899296844209764</v>
       </c>
       <c r="E291" t="n">
-        <v>0.5327559821955492</v>
+        <v>0.9995092180755103</v>
       </c>
       <c r="F291" t="n">
-        <v>0.5327559821955492</v>
+        <v>0.9995092180755103</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -9752,30 +9752,30 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae(reject)</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8851.fa</t>
+          <t>even_MAG-GUT83835.fa</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3.051937737821389e-05</v>
+        <v>6.490644572746112e-07</v>
       </c>
       <c r="C292" t="n">
-        <v>0.0001598981997559857</v>
+        <v>6.09084987008081e-07</v>
       </c>
       <c r="D292" t="n">
-        <v>1.670428264185926e-05</v>
+        <v>0.0004289315795203295</v>
       </c>
       <c r="E292" t="n">
-        <v>0.9997928781402239</v>
+        <v>0.9995698102710354</v>
       </c>
       <c r="F292" t="n">
-        <v>0.9997928781402239</v>
+        <v>0.9995698102710354</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -9791,23 +9791,23 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9090.fa</t>
+          <t>even_MAG-GUT83864.fa</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>8.543016828787303e-07</v>
+        <v>8.32009787953841e-08</v>
       </c>
       <c r="C293" t="n">
-        <v>2.249541129254699e-06</v>
+        <v>3.393000458791935e-06</v>
       </c>
       <c r="D293" t="n">
-        <v>1.06662927833322e-09</v>
+        <v>0.0004135890786344812</v>
       </c>
       <c r="E293" t="n">
-        <v>0.9999968950905586</v>
+        <v>0.999582934719928</v>
       </c>
       <c r="F293" t="n">
-        <v>0.9999968950905586</v>
+        <v>0.999582934719928</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -9823,23 +9823,23 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91407.fa</t>
+          <t>even_MAG-GUT8388.fa</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2.905692856602802e-06</v>
+        <v>2.341146778372959e-06</v>
       </c>
       <c r="C294" t="n">
-        <v>1.935278815942476e-05</v>
+        <v>2.661932865625176e-06</v>
       </c>
       <c r="D294" t="n">
-        <v>1.953609539989141e-05</v>
+        <v>0.001279084349324482</v>
       </c>
       <c r="E294" t="n">
-        <v>0.999958205423584</v>
+        <v>0.9987159125710315</v>
       </c>
       <c r="F294" t="n">
-        <v>0.999958205423584</v>
+        <v>0.9987159125710315</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -9855,23 +9855,23 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92002.fa</t>
+          <t>even_MAG-GUT84116.fa</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.000642717845097952</v>
+        <v>1.734516543015895e-06</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0006458794502882621</v>
+        <v>3.856575278027086e-06</v>
       </c>
       <c r="D295" t="n">
-        <v>0.0006427163456878097</v>
+        <v>1.589550702989078e-05</v>
       </c>
       <c r="E295" t="n">
-        <v>0.9980686863589259</v>
+        <v>0.9999785134011491</v>
       </c>
       <c r="F295" t="n">
-        <v>0.9980686863589259</v>
+        <v>0.9999785134011491</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -9887,23 +9887,23 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92007.fa</t>
+          <t>even_MAG-GUT84132.fa</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.000510006154940354</v>
+        <v>6.308201928962175e-07</v>
       </c>
       <c r="C296" t="n">
-        <v>0.0005120920795048387</v>
+        <v>2.21359196908845e-06</v>
       </c>
       <c r="D296" t="n">
-        <v>0.0005100056733721748</v>
+        <v>5.144048888544386e-06</v>
       </c>
       <c r="E296" t="n">
-        <v>0.9984678960921826</v>
+        <v>0.9999920115389495</v>
       </c>
       <c r="F296" t="n">
-        <v>0.9984678960921826</v>
+        <v>0.9999920115389495</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -9919,23 +9919,23 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9396.fa</t>
+          <t>even_MAG-GUT84184.fa</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>3.844127909386043e-10</v>
+        <v>3.634714389995838e-06</v>
       </c>
       <c r="C297" t="n">
-        <v>1.567154000040611e-07</v>
+        <v>1.173931150814052e-06</v>
       </c>
       <c r="D297" t="n">
-        <v>3.076469958168641e-10</v>
+        <v>0.0004128592972044871</v>
       </c>
       <c r="E297" t="n">
-        <v>0.9999998425925402</v>
+        <v>0.9995823320572547</v>
       </c>
       <c r="F297" t="n">
-        <v>0.9999998425925402</v>
+        <v>0.9995823320572547</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -9951,23 +9951,23 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9405.fa</t>
+          <t>even_MAG-GUT84500.fa</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1.466739736496721e-10</v>
+        <v>0.0005083744505041708</v>
       </c>
       <c r="C298" t="n">
-        <v>5.622494977170856e-08</v>
+        <v>7.09987914261399e-05</v>
       </c>
       <c r="D298" t="n">
-        <v>1.992396112966496e-10</v>
+        <v>0.0007625055281828491</v>
       </c>
       <c r="E298" t="n">
-        <v>0.9999999434291368</v>
+        <v>0.9986581212298868</v>
       </c>
       <c r="F298" t="n">
-        <v>0.9999999434291368</v>
+        <v>0.9986581212298868</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -9983,23 +9983,23 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9594.fa</t>
+          <t>even_MAG-GUT84562.fa</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>7.122296430817682e-07</v>
+        <v>0.0002332086460876049</v>
       </c>
       <c r="C299" t="n">
-        <v>2.849200956869488e-05</v>
+        <v>2.595547003662066e-05</v>
       </c>
       <c r="D299" t="n">
-        <v>1.145864317112772e-05</v>
+        <v>0.0004395622501896013</v>
       </c>
       <c r="E299" t="n">
-        <v>0.9999593371176172</v>
+        <v>0.9993012736336861</v>
       </c>
       <c r="F299" t="n">
-        <v>0.9999593371176172</v>
+        <v>0.9993012736336861</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -10015,23 +10015,23 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9612.fa</t>
+          <t>even_MAG-GUT85312.fa</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>5.280607447843977e-05</v>
+        <v>0.008123458436253566</v>
       </c>
       <c r="C300" t="n">
-        <v>6.704737119340395e-05</v>
+        <v>3.077370855821718e-06</v>
       </c>
       <c r="D300" t="n">
-        <v>7.144260683383862e-08</v>
+        <v>0.0001133796442974249</v>
       </c>
       <c r="E300" t="n">
-        <v>0.9998800751117214</v>
+        <v>0.9917600845485932</v>
       </c>
       <c r="F300" t="n">
-        <v>0.9998800751117214</v>
+        <v>0.9917600845485932</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -10047,23 +10047,23 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9618.fa</t>
+          <t>even_MAG-GUT85568.fa</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>6.566484028933228e-07</v>
+        <v>0.001476831564734514</v>
       </c>
       <c r="C301" t="n">
-        <v>4.737186901013339e-06</v>
+        <v>7.788399570464747e-06</v>
       </c>
       <c r="D301" t="n">
-        <v>1.295868708212713e-05</v>
+        <v>0.0003056327018895526</v>
       </c>
       <c r="E301" t="n">
-        <v>0.999981647477614</v>
+        <v>0.9982097473338054</v>
       </c>
       <c r="F301" t="n">
-        <v>0.999981647477614</v>
+        <v>0.9982097473338054</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -10079,23 +10079,23 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9642.fa</t>
+          <t>even_MAG-GUT86370.fa</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1.079138503662234e-06</v>
+        <v>0.001739904694011271</v>
       </c>
       <c r="C302" t="n">
-        <v>4.9994048524557e-06</v>
+        <v>0.0004240971894908169</v>
       </c>
       <c r="D302" t="n">
-        <v>9.675954773157401e-06</v>
+        <v>0.001921655241855394</v>
       </c>
       <c r="E302" t="n">
-        <v>0.9999842455018707</v>
+        <v>0.9959143428746425</v>
       </c>
       <c r="F302" t="n">
-        <v>0.9999842455018707</v>
+        <v>0.9959143428746425</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -10111,30 +10111,478 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT86569.fa</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.000380946756274135</v>
+      </c>
+      <c r="C303" t="n">
+        <v>8.972890581184317e-05</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.001273165930873346</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.9982561584070406</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.9982561584070406</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87851.fa</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.2585419676069861</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.0002809476119077281</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.0002837612400282798</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.740893323541078</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.740893323541078</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8851.fa</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.0001286805400520308</v>
+      </c>
+      <c r="C305" t="n">
+        <v>4.978065557749645e-06</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.0004090805008210042</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.9994572608935692</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.9994572608935692</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9090.fa</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.0001025654926881443</v>
+      </c>
+      <c r="C306" t="n">
+        <v>4.74964377612644e-07</v>
+      </c>
+      <c r="D306" t="n">
+        <v>3.940811431400241e-05</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.9998575514286203</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.9998575514286203</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91407.fa</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>7.477773895582764e-07</v>
+      </c>
+      <c r="C307" t="n">
+        <v>6.73744412785877e-06</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.001286006438546224</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.9987065083399363</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.9987065083399363</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92002.fa</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>4.19008082139283e-09</v>
+      </c>
+      <c r="C308" t="n">
+        <v>7.409189700552906e-07</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.0002582137858191085</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.9997410411051301</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.9997410411051301</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92007.fa</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1.194733851396505e-09</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3.780773127224693e-07</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.0002841339460915705</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.999715486781862</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.999715486781862</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9396.fa</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.0003450722297938807</v>
+      </c>
+      <c r="C310" t="n">
+        <v>4.966743153702986e-07</v>
+      </c>
+      <c r="D310" t="n">
+        <v>8.676811833640989e-05</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.9995676629775543</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.9995676629775543</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9405.fa</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.0004071860751141468</v>
+      </c>
+      <c r="C311" t="n">
+        <v>4.316654627885183e-07</v>
+      </c>
+      <c r="D311" t="n">
+        <v>7.88392271903099e-05</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.9995135430322328</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.9995135430322328</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9594.fa</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>5.665138117032915e-07</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2.661155237511389e-06</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.000791859880938569</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.9992049124500121</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.9992049124500121</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9612.fa</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2.052020517617168e-05</v>
+      </c>
+      <c r="C313" t="n">
+        <v>5.442152456388091e-05</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.0001986291505894517</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.9997264291196706</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.9997264291196706</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9618.fa</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>6.497655930477399e-06</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1.535680665745253e-05</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.0003803210186011486</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.9995978245188109</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.9995978245188109</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9642.fa</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1.096276670567329e-05</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1.182476928302614e-05</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.0009458064038392736</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.9990314060601719</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.9990314060601719</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9674.fa</t>
         </is>
       </c>
-      <c r="B303" t="n">
-        <v>0.003194840070863147</v>
-      </c>
-      <c r="C303" t="n">
-        <v>0.000109162264176938</v>
-      </c>
-      <c r="D303" t="n">
-        <v>7.8305216927245e-05</v>
-      </c>
-      <c r="E303" t="n">
-        <v>0.9966176924480327</v>
-      </c>
-      <c r="F303" t="n">
-        <v>0.9966176924480327</v>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="B316" t="n">
+        <v>0.001481651409956948</v>
+      </c>
+      <c r="C316" t="n">
+        <v>7.149022499287091e-06</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.01133503407101615</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.9871761654965276</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.9871761654965276</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9766.fa</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>4.176375832772322e-08</v>
+      </c>
+      <c r="C317" t="n">
+        <v>8.703662421430322e-06</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1.89247943986379e-06</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.9999893620943804</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.9999893620943804</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
         <is>
           <t>f__Lachnospiraceae</t>
         </is>
